--- a/日常工作/9月13日统计汇报.xlsx
+++ b/日常工作/9月13日统计汇报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\日常工作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E5CE9-9361-4E5B-98DD-85A7F9C07009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AB1B0-01C4-41E0-B7CA-DE7C67BA485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/日常工作/9月13日统计汇报.xlsx
+++ b/日常工作/9月13日统计汇报.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\日常工作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AB1B0-01C4-41E0-B7CA-DE7C67BA485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0C744-FD4A-42C0-A09D-FF0AF34B2D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -175,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -198,13 +224,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,14 +322,44 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,11 +639,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -545,7 +653,8 @@
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
@@ -556,70 +665,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -644,7 +753,7 @@
       <c r="J2" s="8">
         <v>-270</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="8">
@@ -702,7 +811,7 @@
       <c r="J3" s="8">
         <v>-4661</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="8">
@@ -758,7 +867,7 @@
       <c r="J4" s="8">
         <v>-3500</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="8">
@@ -814,7 +923,7 @@
       <c r="J5" s="8">
         <v>-13500</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="8">
@@ -866,13 +975,13 @@
       <c r="H6" s="8">
         <v>14</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>24895</v>
       </c>
       <c r="J6" s="8">
         <v>-13700</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="8">
@@ -930,7 +1039,7 @@
       <c r="J7" s="8">
         <v>-7600</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="8">
@@ -988,7 +1097,7 @@
       <c r="J8" s="8">
         <v>-4200</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="8">
@@ -1046,7 +1155,7 @@
       <c r="J9" s="8">
         <v>-4600</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="8">
@@ -1106,7 +1215,7 @@
       <c r="J10" s="8">
         <v>-4900</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="8">
@@ -1166,7 +1275,7 @@
       <c r="J11" s="8">
         <v>-5600</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="8">
@@ -1226,7 +1335,7 @@
       <c r="J12" s="8">
         <v>-2000</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="8">
@@ -1286,7 +1395,7 @@
       <c r="J13" s="8">
         <v>-17600</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="8">
@@ -1346,7 +1455,7 @@
       <c r="J14" s="8">
         <v>-6300</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="8">
@@ -1406,7 +1515,7 @@
       <c r="J15" s="8">
         <v>-9400</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="8">
@@ -1466,7 +1575,7 @@
       <c r="J16" s="8">
         <v>-13600</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="8">
@@ -1534,7 +1643,7 @@
       <c r="J17" s="8">
         <v>-12900</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="8">
@@ -1602,7 +1711,7 @@
       <c r="J18" s="8">
         <v>-4300</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="8">
@@ -1670,7 +1779,7 @@
       <c r="J19" s="8">
         <v>-2700</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="8">
@@ -1738,7 +1847,7 @@
       <c r="J20" s="8">
         <v>-82400</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="8">
@@ -1806,7 +1915,7 @@
       <c r="J21" s="8">
         <v>-13200</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="8">
@@ -1874,7 +1983,7 @@
       <c r="J22" s="8">
         <v>-8700</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="8">
@@ -1942,7 +2051,7 @@
       <c r="J23" s="8">
         <v>-9600</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="8">
@@ -2010,7 +2119,7 @@
       <c r="J24" s="11">
         <v>-7600</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="11">
@@ -2078,7 +2187,7 @@
       <c r="J25" s="11">
         <v>-8400</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="11">
@@ -2146,7 +2255,7 @@
       <c r="J26" s="11">
         <v>-7100</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="11">
@@ -2214,7 +2323,7 @@
       <c r="J27" s="11">
         <v>-14500</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="11">
@@ -2282,7 +2391,7 @@
       <c r="J28" s="6">
         <v>-3600</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="6">
@@ -2350,7 +2459,7 @@
       <c r="J29" s="6">
         <v>-20900</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="6">
@@ -2418,7 +2527,7 @@
       <c r="J30" s="6">
         <v>-4800</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="6">
@@ -2486,7 +2595,7 @@
       <c r="J31" s="6">
         <v>-11400</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="6">
@@ -2554,7 +2663,7 @@
       <c r="J32" s="6">
         <v>-13500</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="6">
@@ -2622,7 +2731,7 @@
       <c r="J33" s="6">
         <v>-27700</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="6">
@@ -2690,7 +2799,7 @@
       <c r="J34" s="6">
         <v>-76100</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="6">
@@ -2758,7 +2867,7 @@
       <c r="J35" s="6">
         <v>-65900</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="6">
@@ -2826,7 +2935,7 @@
       <c r="J36" s="6">
         <v>-32400</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="6">
@@ -2894,7 +3003,7 @@
       <c r="J37" s="6">
         <v>-32600</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="6">
@@ -2963,7 +3072,9 @@
       <c r="J38" s="6">
         <v>-7000</v>
       </c>
-      <c r="K38" s="13"/>
+      <c r="K38" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L38" s="6">
         <v>12610</v>
       </c>
@@ -3029,7 +3140,9 @@
       <c r="J39" s="6">
         <v>-2000</v>
       </c>
-      <c r="K39" s="13"/>
+      <c r="K39" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L39" s="6">
         <v>11281</v>
       </c>
@@ -3095,7 +3208,9 @@
       <c r="J40" s="6">
         <v>-9300</v>
       </c>
-      <c r="K40" s="13"/>
+      <c r="K40" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L40" s="6">
         <v>20931</v>
       </c>
@@ -3161,7 +3276,9 @@
       <c r="J41" s="11">
         <v>-13200</v>
       </c>
-      <c r="K41" s="9"/>
+      <c r="K41" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L41" s="11">
         <v>21520</v>
       </c>
@@ -3227,7 +3344,9 @@
       <c r="J42" s="6">
         <v>-10700</v>
       </c>
-      <c r="K42" s="13"/>
+      <c r="K42" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L42" s="6">
         <v>26912</v>
       </c>
@@ -3293,7 +3412,9 @@
       <c r="J43" s="11">
         <v>-41600</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L43" s="11">
         <v>73737</v>
       </c>
@@ -3359,7 +3480,9 @@
       <c r="J44" s="11">
         <v>-26200</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L44" s="11">
         <v>27203</v>
       </c>
@@ -3425,7 +3548,9 @@
       <c r="J45" s="11">
         <v>-22100</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L45" s="11">
         <v>85339</v>
       </c>
@@ -3491,7 +3616,9 @@
       <c r="J46" s="11">
         <v>-3200</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L46" s="11">
         <v>19827</v>
       </c>
@@ -3557,7 +3684,9 @@
       <c r="J47" s="11">
         <v>-130700</v>
       </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L47" s="11">
         <v>90155</v>
       </c>
@@ -3623,7 +3752,9 @@
       <c r="J48" s="11">
         <v>-56400</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L48" s="11">
         <v>59045</v>
       </c>
@@ -3659,89 +3790,2713 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10">
+        <v>44817</v>
+      </c>
+      <c r="B49" s="15">
+        <v>17421</v>
+      </c>
+      <c r="C49" s="15">
+        <v>297</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0</v>
+      </c>
+      <c r="E49" s="15">
+        <v>624</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>-14121</v>
+      </c>
+      <c r="H49" s="15">
+        <v>8</v>
+      </c>
+      <c r="I49" s="15">
+        <v>19040</v>
+      </c>
+      <c r="J49" s="15">
+        <v>-10200</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="15">
+        <v>16709</v>
+      </c>
+      <c r="M49" s="15">
+        <v>9</v>
+      </c>
+      <c r="N49" s="15">
+        <v>15</v>
+      </c>
+      <c r="O49" s="15">
+        <v>26</v>
+      </c>
+      <c r="P49" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>59400</v>
+      </c>
+      <c r="R49" s="15">
+        <v>-11262</v>
+      </c>
+      <c r="S49" s="15">
+        <v>43</v>
+      </c>
+      <c r="T49" s="15">
+        <v>66</v>
+      </c>
+      <c r="U49" s="15">
+        <v>1791</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>44818</v>
+      </c>
+      <c r="B50" s="15">
+        <v>16522</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="15">
+        <v>22</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15">
+        <v>-4400</v>
+      </c>
+      <c r="H50" s="15">
+        <v>15</v>
+      </c>
+      <c r="I50" s="15">
+        <v>15836</v>
+      </c>
+      <c r="J50" s="15">
+        <v>-6400</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="15">
+        <v>15994</v>
+      </c>
+      <c r="M50" s="15">
+        <v>7</v>
+      </c>
+      <c r="N50" s="15">
+        <v>12</v>
+      </c>
+      <c r="O50" s="15">
+        <v>18</v>
+      </c>
+      <c r="P50" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>39600</v>
+      </c>
+      <c r="R50" s="15">
+        <v>-9535</v>
+      </c>
+      <c r="S50" s="15">
+        <v>35</v>
+      </c>
+      <c r="T50" s="15">
+        <v>61</v>
+      </c>
+      <c r="U50" s="15">
+        <v>0</v>
+      </c>
+      <c r="V50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>44819</v>
+      </c>
+      <c r="B51" s="15">
+        <v>7700</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>-2185</v>
+      </c>
+      <c r="H51" s="15">
+        <v>14</v>
+      </c>
+      <c r="I51" s="15">
+        <v>14120</v>
+      </c>
+      <c r="J51" s="15">
+        <v>-7100</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="15">
+        <v>11430</v>
+      </c>
+      <c r="M51" s="15">
+        <v>4</v>
+      </c>
+      <c r="N51" s="15">
+        <v>11</v>
+      </c>
+      <c r="O51" s="15">
+        <v>9</v>
+      </c>
+      <c r="P51" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>19800</v>
+      </c>
+      <c r="R51" s="15">
+        <v>-9652</v>
+      </c>
+      <c r="S51" s="15">
+        <v>19</v>
+      </c>
+      <c r="T51" s="15">
+        <v>58</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>44820</v>
+      </c>
+      <c r="B52" s="15">
+        <v>31900</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>-25226</v>
+      </c>
+      <c r="H52" s="15">
+        <v>21</v>
+      </c>
+      <c r="I52" s="15">
+        <v>11123</v>
+      </c>
+      <c r="J52" s="15">
+        <v>-9800</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="15">
+        <v>12092</v>
+      </c>
+      <c r="M52" s="15">
+        <v>4</v>
+      </c>
+      <c r="N52" s="15">
+        <v>9</v>
+      </c>
+      <c r="O52" s="15">
+        <v>11</v>
+      </c>
+      <c r="P52" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="15">
+        <v>26400</v>
+      </c>
+      <c r="R52" s="15">
+        <v>-12116</v>
+      </c>
+      <c r="S52" s="15">
+        <v>20</v>
+      </c>
+      <c r="T52" s="15">
+        <v>75</v>
+      </c>
+      <c r="U52" s="15">
+        <v>0</v>
+      </c>
+      <c r="V52" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>44821</v>
+      </c>
+      <c r="B53" s="15">
+        <v>6646</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <v>46</v>
+      </c>
+      <c r="E53" s="15">
+        <v>199</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>-2384</v>
+      </c>
+      <c r="H53" s="15">
+        <v>12</v>
+      </c>
+      <c r="I53" s="15">
+        <v>16504</v>
+      </c>
+      <c r="J53" s="15">
+        <v>-2000</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="15">
+        <v>16173</v>
+      </c>
+      <c r="M53" s="15">
+        <v>6</v>
+      </c>
+      <c r="N53" s="15">
+        <v>15</v>
+      </c>
+      <c r="O53" s="15">
+        <v>19</v>
+      </c>
+      <c r="P53" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>39600</v>
+      </c>
+      <c r="R53" s="15">
+        <v>-7972</v>
+      </c>
+      <c r="S53" s="15">
+        <v>30</v>
+      </c>
+      <c r="T53" s="15">
+        <v>63</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>44822</v>
+      </c>
+      <c r="B54" s="15">
+        <v>9900</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0</v>
+      </c>
+      <c r="E54" s="15">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0</v>
+      </c>
+      <c r="G54" s="15">
+        <v>-3041</v>
+      </c>
+      <c r="H54" s="15">
+        <v>12</v>
+      </c>
+      <c r="I54" s="15">
+        <v>8867</v>
+      </c>
+      <c r="J54" s="15">
+        <v>-11100</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="15">
+        <v>10603</v>
+      </c>
+      <c r="M54" s="15">
+        <v>4</v>
+      </c>
+      <c r="N54" s="15">
+        <v>13</v>
+      </c>
+      <c r="O54" s="15">
+        <v>11</v>
+      </c>
+      <c r="P54" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>26400</v>
+      </c>
+      <c r="R54" s="15">
+        <v>-7705</v>
+      </c>
+      <c r="S54" s="15">
+        <v>20</v>
+      </c>
+      <c r="T54" s="15">
+        <v>60</v>
+      </c>
+      <c r="U54" s="15">
+        <v>0</v>
+      </c>
+      <c r="V54" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>44823</v>
+      </c>
+      <c r="B55" s="15">
+        <v>13200</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="15">
+        <v>-5500</v>
+      </c>
+      <c r="H55" s="15">
+        <v>19</v>
+      </c>
+      <c r="I55" s="15">
+        <v>12379</v>
+      </c>
+      <c r="J55" s="15">
+        <v>-8300</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="15">
+        <v>11775</v>
+      </c>
+      <c r="M55" s="15">
+        <v>5</v>
+      </c>
+      <c r="N55" s="15">
+        <v>15</v>
+      </c>
+      <c r="O55" s="15">
+        <v>13</v>
+      </c>
+      <c r="P55" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>33000</v>
+      </c>
+      <c r="R55" s="15">
+        <v>-7749</v>
+      </c>
+      <c r="S55" s="15">
+        <v>25</v>
+      </c>
+      <c r="T55" s="15">
+        <v>57</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>44824</v>
+      </c>
+      <c r="B56" s="15">
+        <v>7700</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <v>-1100</v>
+      </c>
+      <c r="H56" s="15">
+        <v>9</v>
+      </c>
+      <c r="I56" s="15">
+        <v>9364</v>
+      </c>
+      <c r="J56" s="15">
+        <v>-8300</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="15">
+        <v>9770</v>
+      </c>
+      <c r="M56" s="15">
+        <v>3</v>
+      </c>
+      <c r="N56" s="15">
+        <v>11</v>
+      </c>
+      <c r="O56" s="15">
+        <v>9</v>
+      </c>
+      <c r="P56" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>19800</v>
+      </c>
+      <c r="R56" s="15">
+        <v>-5729</v>
+      </c>
+      <c r="S56" s="15">
+        <v>15</v>
+      </c>
+      <c r="T56" s="15">
+        <v>59</v>
+      </c>
+      <c r="U56" s="15">
+        <v>0</v>
+      </c>
+      <c r="V56" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>44825</v>
+      </c>
+      <c r="B57" s="17">
+        <v>58300</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0</v>
+      </c>
+      <c r="G57" s="17">
+        <v>-18688</v>
+      </c>
+      <c r="H57" s="17">
+        <v>13</v>
+      </c>
+      <c r="I57" s="17">
+        <v>27906</v>
+      </c>
+      <c r="J57" s="17">
+        <v>-11600</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="17">
+        <v>29108</v>
+      </c>
+      <c r="M57" s="17">
+        <v>11</v>
+      </c>
+      <c r="N57" s="17">
+        <v>17</v>
+      </c>
+      <c r="O57" s="17">
+        <v>30</v>
+      </c>
+      <c r="P57" s="17">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>66000</v>
+      </c>
+      <c r="R57" s="17">
+        <v>-9827</v>
+      </c>
+      <c r="S57" s="17">
+        <v>52</v>
+      </c>
+      <c r="T57" s="17">
+        <v>80</v>
+      </c>
+      <c r="U57" s="17">
+        <v>0</v>
+      </c>
+      <c r="V57" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>44826</v>
+      </c>
+      <c r="B58" s="15">
+        <v>15518</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="15">
+        <v>46</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>72</v>
+      </c>
+      <c r="G58" s="15">
+        <v>-7573</v>
+      </c>
+      <c r="H58" s="15">
+        <v>21</v>
+      </c>
+      <c r="I58" s="15">
+        <v>13520</v>
+      </c>
+      <c r="J58" s="15">
+        <v>-6700</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="15">
+        <v>14675</v>
+      </c>
+      <c r="M58" s="15">
+        <v>7</v>
+      </c>
+      <c r="N58" s="15">
+        <v>16</v>
+      </c>
+      <c r="O58" s="15">
+        <v>18</v>
+      </c>
+      <c r="P58" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>39600</v>
+      </c>
+      <c r="R58" s="15">
+        <v>-7812</v>
+      </c>
+      <c r="S58" s="15">
+        <v>34</v>
+      </c>
+      <c r="T58" s="15">
+        <v>76</v>
+      </c>
+      <c r="U58" s="15">
+        <v>390</v>
+      </c>
+      <c r="V58" s="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>44827</v>
+      </c>
+      <c r="B59" s="15">
+        <v>22000</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15">
+        <v>0</v>
+      </c>
+      <c r="E59" s="15">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15">
+        <v>-8800</v>
+      </c>
+      <c r="H59" s="15">
+        <v>32</v>
+      </c>
+      <c r="I59" s="15">
+        <v>34588</v>
+      </c>
+      <c r="J59" s="15">
+        <v>-12700</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="15">
+        <v>37267</v>
+      </c>
+      <c r="M59" s="15">
+        <v>12</v>
+      </c>
+      <c r="N59" s="15">
         <v>23</v>
       </c>
-      <c r="B49" s="12">
-        <f>SUM(B2:B47)</f>
-        <v>2300407</v>
-      </c>
-      <c r="C49" s="12">
-        <f>SUM(C2:C47)</f>
-        <v>862</v>
-      </c>
-      <c r="D49" s="12">
-        <f t="shared" ref="D49:J49" si="0">SUM(D2:D46)</f>
-        <v>74</v>
-      </c>
-      <c r="E49" s="12">
-        <f>SUM(E2:E47)</f>
-        <v>876</v>
-      </c>
-      <c r="F49" s="12">
+      <c r="O59" s="15">
+        <v>35</v>
+      </c>
+      <c r="P59" s="15">
+        <v>26</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>79200</v>
+      </c>
+      <c r="R59" s="15">
+        <v>-7904</v>
+      </c>
+      <c r="S59" s="15">
+        <v>61</v>
+      </c>
+      <c r="T59" s="15">
+        <v>59</v>
+      </c>
+      <c r="U59" s="15">
+        <v>0</v>
+      </c>
+      <c r="V59" s="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>44828</v>
+      </c>
+      <c r="B60" s="15">
+        <v>40700</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-2200</v>
+      </c>
+      <c r="H60" s="15">
+        <v>25</v>
+      </c>
+      <c r="I60" s="15">
+        <v>10648</v>
+      </c>
+      <c r="J60" s="15">
+        <v>-1800</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="15">
+        <v>10960</v>
+      </c>
+      <c r="M60" s="15">
+        <v>4</v>
+      </c>
+      <c r="N60" s="15">
+        <v>12</v>
+      </c>
+      <c r="O60" s="15">
+        <v>9</v>
+      </c>
+      <c r="P60" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>26400</v>
+      </c>
+      <c r="R60" s="15">
+        <v>-10132</v>
+      </c>
+      <c r="S60" s="15">
+        <v>20</v>
+      </c>
+      <c r="T60" s="15">
+        <v>84</v>
+      </c>
+      <c r="U60" s="15">
+        <v>0</v>
+      </c>
+      <c r="V60" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>44829</v>
+      </c>
+      <c r="B61" s="15">
+        <v>9900</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15">
+        <v>-577</v>
+      </c>
+      <c r="H61" s="18">
+        <v>15</v>
+      </c>
+      <c r="I61" s="18">
+        <v>30282</v>
+      </c>
+      <c r="J61" s="18">
+        <v>-36100</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="18">
+        <v>31944</v>
+      </c>
+      <c r="M61" s="18">
+        <v>6</v>
+      </c>
+      <c r="N61" s="18">
+        <v>15</v>
+      </c>
+      <c r="O61" s="18">
+        <v>18</v>
+      </c>
+      <c r="P61" s="18">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>33000</v>
+      </c>
+      <c r="R61" s="18">
+        <v>-8126</v>
+      </c>
+      <c r="S61" s="18">
+        <v>29</v>
+      </c>
+      <c r="T61" s="18">
+        <v>77</v>
+      </c>
+      <c r="U61" s="18">
+        <v>0</v>
+      </c>
+      <c r="V61" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>44830</v>
+      </c>
+      <c r="B62" s="19">
+        <v>27500</v>
+      </c>
+      <c r="C62" s="19">
+        <v>0</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0</v>
+      </c>
+      <c r="E62" s="19">
+        <v>0</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0</v>
+      </c>
+      <c r="G62" s="19">
+        <v>-12189</v>
+      </c>
+      <c r="H62" s="19">
+        <v>23</v>
+      </c>
+      <c r="I62" s="19">
+        <v>30280</v>
+      </c>
+      <c r="J62" s="19">
+        <v>-24400</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="19">
+        <v>31904</v>
+      </c>
+      <c r="M62" s="19">
+        <v>13</v>
+      </c>
+      <c r="N62" s="19">
+        <v>27</v>
+      </c>
+      <c r="O62" s="19">
+        <v>36</v>
+      </c>
+      <c r="P62" s="19">
+        <v>27</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>85800</v>
+      </c>
+      <c r="R62" s="19">
+        <v>-8274</v>
+      </c>
+      <c r="S62" s="19">
+        <v>63</v>
+      </c>
+      <c r="T62" s="19">
+        <v>65</v>
+      </c>
+      <c r="U62" s="19">
+        <v>0</v>
+      </c>
+      <c r="V62" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>44831</v>
+      </c>
+      <c r="B63" s="15">
+        <v>8800</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15">
+        <v>0</v>
+      </c>
+      <c r="G63" s="15">
+        <v>-4400</v>
+      </c>
+      <c r="H63" s="15">
+        <v>7</v>
+      </c>
+      <c r="I63" s="15">
+        <v>12124</v>
+      </c>
+      <c r="J63" s="15">
+        <v>-9700</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="15">
+        <v>12448</v>
+      </c>
+      <c r="M63" s="15">
+        <v>5</v>
+      </c>
+      <c r="N63" s="15">
+        <v>11</v>
+      </c>
+      <c r="O63" s="15">
+        <v>14</v>
+      </c>
+      <c r="P63" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="15">
+        <v>33000</v>
+      </c>
+      <c r="R63" s="15">
+        <v>-6101</v>
+      </c>
+      <c r="S63" s="15">
+        <v>24</v>
+      </c>
+      <c r="T63" s="15">
+        <v>59</v>
+      </c>
+      <c r="U63" s="15">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>44832</v>
+      </c>
+      <c r="B64" s="15">
+        <v>29700</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15">
+        <v>0</v>
+      </c>
+      <c r="G64" s="15">
+        <v>-10989</v>
+      </c>
+      <c r="H64" s="15">
+        <v>11</v>
+      </c>
+      <c r="I64" s="15">
+        <v>14360</v>
+      </c>
+      <c r="J64" s="15">
+        <v>-2500</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="15">
+        <v>14731</v>
+      </c>
+      <c r="M64" s="15">
+        <v>10</v>
+      </c>
+      <c r="N64" s="15">
+        <v>16</v>
+      </c>
+      <c r="O64" s="15">
+        <v>27</v>
+      </c>
+      <c r="P64" s="15">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="15">
+        <v>59400</v>
+      </c>
+      <c r="R64" s="15">
+        <v>-8516</v>
+      </c>
+      <c r="S64" s="15">
+        <v>47</v>
+      </c>
+      <c r="T64" s="15">
+        <v>59</v>
+      </c>
+      <c r="U64" s="15">
+        <v>0</v>
+      </c>
+      <c r="V64" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>44833</v>
+      </c>
+      <c r="B65" s="17">
+        <v>219541</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <v>0</v>
+      </c>
+      <c r="F65" s="17">
+        <v>641</v>
+      </c>
+      <c r="G65" s="17">
+        <v>-5567</v>
+      </c>
+      <c r="H65" s="17">
+        <v>10</v>
+      </c>
+      <c r="I65" s="17">
+        <v>23346</v>
+      </c>
+      <c r="J65" s="17">
+        <v>-10300</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="17">
+        <v>22839</v>
+      </c>
+      <c r="M65" s="17">
+        <v>16</v>
+      </c>
+      <c r="N65" s="17">
+        <v>23</v>
+      </c>
+      <c r="O65" s="17">
+        <v>47</v>
+      </c>
+      <c r="P65" s="17">
+        <v>33</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>105600</v>
+      </c>
+      <c r="R65" s="17">
+        <v>-16488</v>
+      </c>
+      <c r="S65" s="17">
+        <v>80</v>
+      </c>
+      <c r="T65" s="17">
+        <v>250</v>
+      </c>
+      <c r="U65" s="17">
+        <v>2094</v>
+      </c>
+      <c r="V65" s="17">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>44834</v>
+      </c>
+      <c r="B66" s="15">
+        <v>70400</v>
+      </c>
+      <c r="C66" s="15">
+        <v>199</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0</v>
+      </c>
+      <c r="E66" s="15">
+        <v>99</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0</v>
+      </c>
+      <c r="G66" s="15">
+        <v>-11821</v>
+      </c>
+      <c r="H66" s="15">
+        <v>15</v>
+      </c>
+      <c r="I66" s="15">
+        <v>42994</v>
+      </c>
+      <c r="J66" s="15">
+        <v>-7200</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="15">
+        <v>46994</v>
+      </c>
+      <c r="M66" s="15">
+        <v>34</v>
+      </c>
+      <c r="N66" s="15">
+        <v>25</v>
+      </c>
+      <c r="O66" s="15">
+        <v>101</v>
+      </c>
+      <c r="P66" s="15">
+        <v>71</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>224400</v>
+      </c>
+      <c r="R66" s="15">
+        <v>-9894</v>
+      </c>
+      <c r="S66" s="15">
+        <v>172</v>
+      </c>
+      <c r="T66" s="15">
+        <v>210</v>
+      </c>
+      <c r="U66" s="15">
+        <v>0</v>
+      </c>
+      <c r="V66" s="15">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>44835</v>
+      </c>
+      <c r="B67" s="15">
+        <v>25300</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15">
+        <v>0</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-3884</v>
+      </c>
+      <c r="H67" s="15">
+        <v>17</v>
+      </c>
+      <c r="I67" s="15">
+        <v>20111</v>
+      </c>
+      <c r="J67" s="15">
+        <v>-3200</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="15">
+        <v>21355</v>
+      </c>
+      <c r="M67" s="15">
+        <v>13</v>
+      </c>
+      <c r="N67" s="15">
+        <v>20</v>
+      </c>
+      <c r="O67" s="15">
+        <v>37</v>
+      </c>
+      <c r="P67" s="15">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="15">
+        <v>85800</v>
+      </c>
+      <c r="R67" s="15">
+        <v>-8582</v>
+      </c>
+      <c r="S67" s="15">
+        <v>66</v>
+      </c>
+      <c r="T67" s="15">
+        <v>193</v>
+      </c>
+      <c r="U67" s="15">
+        <v>0</v>
+      </c>
+      <c r="V67" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>44836</v>
+      </c>
+      <c r="B68" s="15">
+        <v>337700</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0</v>
+      </c>
+      <c r="E68" s="15">
+        <v>0</v>
+      </c>
+      <c r="F68" s="15">
+        <v>0</v>
+      </c>
+      <c r="G68" s="15">
+        <v>-11491</v>
+      </c>
+      <c r="H68" s="15">
+        <v>38</v>
+      </c>
+      <c r="I68" s="15">
+        <v>37499</v>
+      </c>
+      <c r="J68" s="15">
+        <v>-1700</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="15">
+        <v>39568</v>
+      </c>
+      <c r="M68" s="15">
+        <v>30</v>
+      </c>
+      <c r="N68" s="15">
+        <v>40</v>
+      </c>
+      <c r="O68" s="15">
+        <v>89</v>
+      </c>
+      <c r="P68" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q68" s="15">
+        <v>198000</v>
+      </c>
+      <c r="R68" s="15">
+        <v>-22906</v>
+      </c>
+      <c r="S68" s="15">
+        <v>149</v>
+      </c>
+      <c r="T68" s="15">
+        <v>411</v>
+      </c>
+      <c r="U68" s="15">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>44837</v>
+      </c>
+      <c r="B69" s="18">
+        <v>75900</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15">
+        <v>0</v>
+      </c>
+      <c r="E69" s="15">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15">
+        <v>0</v>
+      </c>
+      <c r="G69" s="18">
+        <v>-35951</v>
+      </c>
+      <c r="H69" s="18">
+        <v>20</v>
+      </c>
+      <c r="I69" s="18">
+        <v>71076</v>
+      </c>
+      <c r="J69" s="18">
+        <v>-4000</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="18">
+        <v>60220</v>
+      </c>
+      <c r="M69" s="18">
+        <v>38</v>
+      </c>
+      <c r="N69" s="18">
+        <v>41</v>
+      </c>
+      <c r="O69" s="18">
+        <v>113</v>
+      </c>
+      <c r="P69" s="18">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>250800</v>
+      </c>
+      <c r="R69" s="18">
+        <v>-9055</v>
+      </c>
+      <c r="S69" s="18">
+        <v>191</v>
+      </c>
+      <c r="T69" s="18">
+        <v>365</v>
+      </c>
+      <c r="U69" s="18">
+        <v>0</v>
+      </c>
+      <c r="V69" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>44838</v>
+      </c>
+      <c r="B70" s="18">
+        <v>29700</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15">
+        <v>0</v>
+      </c>
+      <c r="E70" s="15">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18">
+        <v>-11000</v>
+      </c>
+      <c r="H70" s="18">
+        <v>21</v>
+      </c>
+      <c r="I70" s="18">
+        <v>30449</v>
+      </c>
+      <c r="J70" s="18">
+        <v>-4100</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="18">
+        <v>36431</v>
+      </c>
+      <c r="M70" s="18">
+        <v>27</v>
+      </c>
+      <c r="N70" s="18">
+        <v>26</v>
+      </c>
+      <c r="O70" s="18">
+        <v>78</v>
+      </c>
+      <c r="P70" s="18">
+        <v>57</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>178200</v>
+      </c>
+      <c r="R70" s="18">
+        <v>-9236</v>
+      </c>
+      <c r="S70" s="18">
+        <v>135</v>
+      </c>
+      <c r="T70" s="18">
+        <v>311</v>
+      </c>
+      <c r="U70" s="18">
+        <v>0</v>
+      </c>
+      <c r="V70" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>44839</v>
+      </c>
+      <c r="B71" s="18">
+        <v>102300</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0</v>
+      </c>
+      <c r="D71" s="15">
+        <v>0</v>
+      </c>
+      <c r="E71" s="15">
+        <v>319</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0</v>
+      </c>
+      <c r="G71" s="18">
+        <v>-67431</v>
+      </c>
+      <c r="H71" s="18">
+        <v>14</v>
+      </c>
+      <c r="I71" s="18">
+        <v>126798</v>
+      </c>
+      <c r="J71" s="18">
+        <v>-10900</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="18">
+        <v>125016</v>
+      </c>
+      <c r="M71" s="18">
+        <v>39</v>
+      </c>
+      <c r="N71" s="18">
+        <v>23</v>
+      </c>
+      <c r="O71" s="18">
+        <v>118</v>
+      </c>
+      <c r="P71" s="18">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="18">
+        <v>257400</v>
+      </c>
+      <c r="R71" s="18">
+        <v>-9538</v>
+      </c>
+      <c r="S71" s="18">
+        <v>195</v>
+      </c>
+      <c r="T71" s="18">
+        <v>287</v>
+      </c>
+      <c r="U71" s="18">
+        <v>0</v>
+      </c>
+      <c r="V71" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>44840</v>
+      </c>
+      <c r="B72" s="18">
+        <v>79200</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0</v>
+      </c>
+      <c r="D72" s="15">
+        <v>0</v>
+      </c>
+      <c r="E72" s="15">
+        <v>0</v>
+      </c>
+      <c r="F72" s="15">
+        <v>0</v>
+      </c>
+      <c r="G72" s="18">
+        <v>-14300</v>
+      </c>
+      <c r="H72" s="18">
+        <v>24</v>
+      </c>
+      <c r="I72" s="18">
+        <v>39759</v>
+      </c>
+      <c r="J72" s="18">
+        <v>-11000</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="18">
+        <v>50268</v>
+      </c>
+      <c r="M72" s="18">
+        <v>40</v>
+      </c>
+      <c r="N72" s="18">
+        <v>27</v>
+      </c>
+      <c r="O72" s="18">
+        <v>117</v>
+      </c>
+      <c r="P72" s="18">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="18">
+        <v>264000</v>
+      </c>
+      <c r="R72" s="18">
+        <v>-12553</v>
+      </c>
+      <c r="S72" s="18">
+        <v>197</v>
+      </c>
+      <c r="T72" s="18">
+        <v>242</v>
+      </c>
+      <c r="U72" s="18">
+        <v>0</v>
+      </c>
+      <c r="V72" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>44841</v>
+      </c>
+      <c r="B73" s="18">
+        <v>52800</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0</v>
+      </c>
+      <c r="D73" s="15">
+        <v>0</v>
+      </c>
+      <c r="E73" s="15">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15">
+        <v>0</v>
+      </c>
+      <c r="G73" s="18">
+        <v>-25644</v>
+      </c>
+      <c r="H73" s="18">
+        <v>12</v>
+      </c>
+      <c r="I73" s="18">
+        <v>87645</v>
+      </c>
+      <c r="J73" s="18">
+        <v>-27700</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="18">
+        <v>93641</v>
+      </c>
+      <c r="M73" s="18">
+        <v>27</v>
+      </c>
+      <c r="N73" s="18">
+        <v>25</v>
+      </c>
+      <c r="O73" s="18">
+        <v>84</v>
+      </c>
+      <c r="P73" s="18">
+        <v>54</v>
+      </c>
+      <c r="Q73" s="18">
+        <v>178200</v>
+      </c>
+      <c r="R73" s="18">
+        <v>-10271</v>
+      </c>
+      <c r="S73" s="18">
+        <v>138</v>
+      </c>
+      <c r="T73" s="18">
+        <v>206</v>
+      </c>
+      <c r="U73" s="18">
+        <v>0</v>
+      </c>
+      <c r="V73" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>44842</v>
+      </c>
+      <c r="B74" s="17">
+        <v>8800</v>
+      </c>
+      <c r="C74" s="17">
+        <v>0</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17">
+        <v>0</v>
+      </c>
+      <c r="G74" s="17">
+        <v>-5284</v>
+      </c>
+      <c r="H74" s="17">
+        <v>13</v>
+      </c>
+      <c r="I74" s="17">
+        <v>41661</v>
+      </c>
+      <c r="J74" s="17">
+        <v>-80500</v>
+      </c>
+      <c r="K74" s="21"/>
+      <c r="L74" s="17">
+        <v>33311</v>
+      </c>
+      <c r="M74" s="17">
+        <v>23</v>
+      </c>
+      <c r="N74" s="17">
+        <v>19</v>
+      </c>
+      <c r="O74" s="17">
+        <v>66</v>
+      </c>
+      <c r="P74" s="17">
+        <v>49</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>151800</v>
+      </c>
+      <c r="R74" s="17">
+        <v>-10731</v>
+      </c>
+      <c r="S74" s="17">
+        <v>115</v>
+      </c>
+      <c r="T74" s="17">
+        <v>145</v>
+      </c>
+      <c r="U74" s="17">
+        <v>0</v>
+      </c>
+      <c r="V74" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>44843</v>
+      </c>
+      <c r="B75" s="15">
+        <v>11000</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>-7595</v>
+      </c>
+      <c r="H75" s="15">
+        <v>10</v>
+      </c>
+      <c r="I75" s="15">
+        <v>97331</v>
+      </c>
+      <c r="J75" s="15">
+        <v>-122900</v>
+      </c>
+      <c r="K75" s="16"/>
+      <c r="L75" s="15">
+        <v>82952</v>
+      </c>
+      <c r="M75" s="15">
+        <v>10</v>
+      </c>
+      <c r="N75" s="15">
+        <v>14</v>
+      </c>
+      <c r="O75" s="15">
+        <v>27</v>
+      </c>
+      <c r="P75" s="15">
+        <v>22</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>57400</v>
+      </c>
+      <c r="R75" s="15">
+        <v>-8292</v>
+      </c>
+      <c r="S75" s="15">
+        <v>49</v>
+      </c>
+      <c r="T75" s="15">
+        <v>129</v>
+      </c>
+      <c r="U75" s="15">
+        <v>0</v>
+      </c>
+      <c r="V75" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>44844</v>
+      </c>
+      <c r="B76" s="17">
+        <v>13200</v>
+      </c>
+      <c r="C76" s="17">
+        <v>277</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
+        <v>0</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17">
+        <v>-13424</v>
+      </c>
+      <c r="H76" s="17">
+        <v>6</v>
+      </c>
+      <c r="I76" s="17">
+        <v>141847</v>
+      </c>
+      <c r="J76" s="17">
+        <v>-91100</v>
+      </c>
+      <c r="K76" s="21"/>
+      <c r="L76" s="17">
+        <v>144788</v>
+      </c>
+      <c r="M76" s="17">
+        <v>9</v>
+      </c>
+      <c r="N76" s="17">
+        <v>13</v>
+      </c>
+      <c r="O76" s="17">
+        <v>24</v>
+      </c>
+      <c r="P76" s="17">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="17">
+        <v>52800</v>
+      </c>
+      <c r="R76" s="17">
+        <v>-8491</v>
+      </c>
+      <c r="S76" s="17">
+        <v>43</v>
+      </c>
+      <c r="T76" s="17">
+        <v>118</v>
+      </c>
+      <c r="U76" s="17">
+        <v>0</v>
+      </c>
+      <c r="V76" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>44845</v>
+      </c>
+      <c r="B77" s="15">
+        <v>2200</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0</v>
+      </c>
+      <c r="G77" s="15">
+        <v>-2200</v>
+      </c>
+      <c r="H77" s="15">
+        <v>5</v>
+      </c>
+      <c r="I77" s="15">
+        <v>13899</v>
+      </c>
+      <c r="J77" s="15">
+        <v>-40300</v>
+      </c>
+      <c r="K77" s="22"/>
+      <c r="L77" s="15">
+        <v>10684</v>
+      </c>
+      <c r="M77" s="15">
+        <v>3</v>
+      </c>
+      <c r="N77" s="15">
+        <v>6</v>
+      </c>
+      <c r="O77" s="15">
+        <v>7</v>
+      </c>
+      <c r="P77" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="15">
+        <v>19800</v>
+      </c>
+      <c r="R77" s="15">
+        <v>-8693</v>
+      </c>
+      <c r="S77" s="15">
+        <v>15</v>
+      </c>
+      <c r="T77" s="15">
+        <v>111</v>
+      </c>
+      <c r="U77" s="15">
+        <v>0</v>
+      </c>
+      <c r="V77" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>44846</v>
+      </c>
+      <c r="B78" s="18">
+        <v>5566</v>
+      </c>
+      <c r="C78" s="18">
+        <v>199</v>
+      </c>
+      <c r="D78" s="18">
+        <v>66</v>
+      </c>
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
+      <c r="F78" s="18">
+        <v>0</v>
+      </c>
+      <c r="G78" s="18">
+        <v>-2904</v>
+      </c>
+      <c r="H78" s="18">
+        <v>6</v>
+      </c>
+      <c r="I78" s="18">
+        <v>15960</v>
+      </c>
+      <c r="J78" s="18">
+        <v>-8600</v>
+      </c>
+      <c r="K78" s="23"/>
+      <c r="L78" s="18">
+        <v>17047</v>
+      </c>
+      <c r="M78" s="18">
+        <v>10</v>
+      </c>
+      <c r="N78" s="18">
+        <v>11</v>
+      </c>
+      <c r="O78" s="18">
+        <v>27</v>
+      </c>
+      <c r="P78" s="18">
+        <v>22</v>
+      </c>
+      <c r="Q78" s="18">
+        <v>59400</v>
+      </c>
+      <c r="R78" s="18">
+        <v>-8738</v>
+      </c>
+      <c r="S78" s="18">
+        <v>49</v>
+      </c>
+      <c r="T78" s="18">
+        <v>88</v>
+      </c>
+      <c r="U78" s="18">
+        <v>0</v>
+      </c>
+      <c r="V78" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>44847</v>
+      </c>
+      <c r="B79" s="17">
+        <v>4400</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17">
+        <v>-3300</v>
+      </c>
+      <c r="H79" s="17">
+        <v>8</v>
+      </c>
+      <c r="I79" s="17">
+        <v>8470</v>
+      </c>
+      <c r="J79" s="17">
+        <v>-9800</v>
+      </c>
+      <c r="K79" s="21"/>
+      <c r="L79" s="17">
+        <v>10686</v>
+      </c>
+      <c r="M79" s="17">
+        <v>4</v>
+      </c>
+      <c r="N79" s="17">
+        <v>8</v>
+      </c>
+      <c r="O79" s="17">
+        <v>9</v>
+      </c>
+      <c r="P79" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>19800</v>
+      </c>
+      <c r="R79" s="17">
+        <v>-8831</v>
+      </c>
+      <c r="S79" s="17">
+        <v>19</v>
+      </c>
+      <c r="T79" s="17">
+        <v>83</v>
+      </c>
+      <c r="U79" s="17">
+        <v>0</v>
+      </c>
+      <c r="V79" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>44848</v>
+      </c>
+      <c r="B80" s="15">
+        <v>12100</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0</v>
+      </c>
+      <c r="E80" s="15">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15">
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <v>-10809</v>
+      </c>
+      <c r="H80" s="15">
+        <v>2</v>
+      </c>
+      <c r="I80" s="15">
+        <v>16731</v>
+      </c>
+      <c r="J80" s="15">
+        <v>-3900</v>
+      </c>
+      <c r="K80" s="22"/>
+      <c r="L80" s="15">
+        <v>12849</v>
+      </c>
+      <c r="M80" s="15">
+        <v>6</v>
+      </c>
+      <c r="N80" s="15">
+        <v>11</v>
+      </c>
+      <c r="O80" s="15">
+        <v>15</v>
+      </c>
+      <c r="P80" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="15">
+        <v>33000</v>
+      </c>
+      <c r="R80" s="15">
+        <v>-8828</v>
+      </c>
+      <c r="S80" s="15">
+        <v>27</v>
+      </c>
+      <c r="T80" s="15">
+        <v>81</v>
+      </c>
+      <c r="U80" s="15">
+        <v>0</v>
+      </c>
+      <c r="V80" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>44849</v>
+      </c>
+      <c r="B81" s="17">
+        <v>33000</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17">
+        <v>-3480</v>
+      </c>
+      <c r="H81" s="17">
+        <v>8</v>
+      </c>
+      <c r="I81" s="17">
+        <v>17626</v>
+      </c>
+      <c r="J81" s="17">
+        <v>-1700</v>
+      </c>
+      <c r="K81" s="24"/>
+      <c r="L81" s="17">
+        <v>18557</v>
+      </c>
+      <c r="M81" s="17">
+        <v>12</v>
+      </c>
+      <c r="N81" s="17">
+        <v>12</v>
+      </c>
+      <c r="O81" s="17">
+        <v>33</v>
+      </c>
+      <c r="P81" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="17">
+        <v>72600</v>
+      </c>
+      <c r="R81" s="17">
+        <v>-8886</v>
+      </c>
+      <c r="S81" s="17">
+        <v>58</v>
+      </c>
+      <c r="T81" s="17">
+        <v>79</v>
+      </c>
+      <c r="U81" s="17">
+        <v>0</v>
+      </c>
+      <c r="V81" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>44850</v>
+      </c>
+      <c r="B82" s="15">
+        <v>18746</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1040</v>
+      </c>
+      <c r="D82" s="15">
+        <v>46</v>
+      </c>
+      <c r="E82" s="15">
+        <v>179.01</v>
+      </c>
+      <c r="F82" s="15">
+        <v>0</v>
+      </c>
+      <c r="G82" s="15">
+        <v>-12219</v>
+      </c>
+      <c r="H82" s="15">
+        <v>7</v>
+      </c>
+      <c r="I82" s="15">
+        <v>19366</v>
+      </c>
+      <c r="J82" s="15">
+        <v>-19600</v>
+      </c>
+      <c r="K82" s="22"/>
+      <c r="L82" s="15">
+        <v>18919</v>
+      </c>
+      <c r="M82" s="15">
+        <v>12</v>
+      </c>
+      <c r="N82" s="15">
+        <v>17</v>
+      </c>
+      <c r="O82" s="15">
+        <v>33</v>
+      </c>
+      <c r="P82" s="15">
+        <v>29</v>
+      </c>
+      <c r="Q82" s="15">
+        <v>72600</v>
+      </c>
+      <c r="R82" s="15">
+        <v>-8915</v>
+      </c>
+      <c r="S82" s="15">
+        <v>62</v>
+      </c>
+      <c r="T82" s="15">
+        <v>60</v>
+      </c>
+      <c r="U82" s="15">
+        <v>0</v>
+      </c>
+      <c r="V82" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>44851</v>
+      </c>
+      <c r="B83" s="15">
+        <v>4502</v>
+      </c>
+      <c r="C83" s="15">
+        <v>299</v>
+      </c>
+      <c r="D83" s="15">
+        <v>102</v>
+      </c>
+      <c r="E83" s="15">
+        <v>39</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>-3638</v>
+      </c>
+      <c r="H83" s="15">
+        <v>8</v>
+      </c>
+      <c r="I83" s="15">
+        <v>12407</v>
+      </c>
+      <c r="J83" s="15">
+        <v>-29400</v>
+      </c>
+      <c r="K83" s="22"/>
+      <c r="L83" s="15">
+        <v>12131</v>
+      </c>
+      <c r="M83" s="15">
+        <v>5</v>
+      </c>
+      <c r="N83" s="15">
+        <v>9</v>
+      </c>
+      <c r="O83" s="15">
+        <v>12</v>
+      </c>
+      <c r="P83" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="15">
+        <v>26400</v>
+      </c>
+      <c r="R83" s="15">
+        <v>-8956</v>
+      </c>
+      <c r="S83" s="15">
+        <v>23</v>
+      </c>
+      <c r="T83" s="15">
+        <v>53</v>
+      </c>
+      <c r="U83" s="15">
+        <v>654</v>
+      </c>
+      <c r="V83" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>44852</v>
+      </c>
+      <c r="B84" s="15">
+        <v>3300</v>
+      </c>
+      <c r="C84" s="15">
+        <v>119</v>
+      </c>
+      <c r="D84" s="15">
+        <v>0</v>
+      </c>
+      <c r="E84" s="15">
+        <v>108</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0</v>
+      </c>
+      <c r="G84" s="15">
+        <v>-2427</v>
+      </c>
+      <c r="H84" s="15">
+        <v>4</v>
+      </c>
+      <c r="I84" s="15">
+        <v>10085</v>
+      </c>
+      <c r="J84" s="15">
+        <v>-6800</v>
+      </c>
+      <c r="K84" s="22"/>
+      <c r="L84" s="15">
+        <v>13051</v>
+      </c>
+      <c r="M84" s="15">
+        <v>5</v>
+      </c>
+      <c r="N84" s="15">
+        <v>11</v>
+      </c>
+      <c r="O84" s="15">
+        <v>13</v>
+      </c>
+      <c r="P84" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q84" s="15">
+        <v>33000</v>
+      </c>
+      <c r="R84" s="15">
+        <v>-5810</v>
+      </c>
+      <c r="S84" s="15">
+        <v>26</v>
+      </c>
+      <c r="T84" s="15">
+        <v>40</v>
+      </c>
+      <c r="U84" s="15">
+        <v>0</v>
+      </c>
+      <c r="V84" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>44853</v>
+      </c>
+      <c r="B85" s="15">
+        <v>13262</v>
+      </c>
+      <c r="C85" s="15">
+        <v>0</v>
+      </c>
+      <c r="D85" s="15">
+        <v>0</v>
+      </c>
+      <c r="E85" s="15">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15">
+        <v>62</v>
+      </c>
+      <c r="G85" s="15">
+        <v>-6287</v>
+      </c>
+      <c r="H85" s="15">
+        <v>12</v>
+      </c>
+      <c r="I85" s="15">
+        <v>35103</v>
+      </c>
+      <c r="J85" s="15">
+        <v>-35900</v>
+      </c>
+      <c r="K85" s="22"/>
+      <c r="L85" s="15">
+        <v>32690</v>
+      </c>
+      <c r="M85" s="15">
+        <v>6</v>
+      </c>
+      <c r="N85" s="15">
+        <v>12</v>
+      </c>
+      <c r="O85" s="15">
+        <v>15</v>
+      </c>
+      <c r="P85" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q85" s="15">
+        <v>33000</v>
+      </c>
+      <c r="R85" s="15">
+        <v>-5857</v>
+      </c>
+      <c r="S85" s="15">
+        <v>27</v>
+      </c>
+      <c r="T85" s="15">
+        <v>39</v>
+      </c>
+      <c r="U85" s="15">
+        <v>0</v>
+      </c>
+      <c r="V85" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>44854</v>
+      </c>
+      <c r="B86" s="15">
+        <v>36300</v>
+      </c>
+      <c r="C86" s="15">
+        <v>0</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0</v>
+      </c>
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="15">
+        <v>-3956</v>
+      </c>
+      <c r="H86" s="15">
+        <v>9</v>
+      </c>
+      <c r="I86" s="15">
+        <v>12626</v>
+      </c>
+      <c r="J86" s="15">
+        <v>-2400</v>
+      </c>
+      <c r="K86" s="22"/>
+      <c r="L86" s="15">
+        <v>15091</v>
+      </c>
+      <c r="M86" s="15">
+        <v>11</v>
+      </c>
+      <c r="N86" s="15">
+        <v>18</v>
+      </c>
+      <c r="O86" s="15">
+        <v>30</v>
+      </c>
+      <c r="P86" s="15">
+        <v>24</v>
+      </c>
+      <c r="Q86" s="15">
+        <v>66000</v>
+      </c>
+      <c r="R86" s="15">
+        <v>-5873</v>
+      </c>
+      <c r="S86" s="15">
+        <v>54</v>
+      </c>
+      <c r="T86" s="15">
+        <v>42</v>
+      </c>
+      <c r="U86" s="15">
+        <v>0</v>
+      </c>
+      <c r="V86" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>44855</v>
+      </c>
+      <c r="B87" s="18">
+        <v>26400</v>
+      </c>
+      <c r="C87" s="15">
+        <v>0</v>
+      </c>
+      <c r="D87" s="15">
+        <v>0</v>
+      </c>
+      <c r="E87" s="15">
+        <v>0</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0</v>
+      </c>
+      <c r="G87" s="18">
+        <v>-1100</v>
+      </c>
+      <c r="H87" s="18">
+        <v>3</v>
+      </c>
+      <c r="I87" s="18">
+        <v>24352</v>
+      </c>
+      <c r="J87" s="18">
+        <v>-9900</v>
+      </c>
+      <c r="K87" s="23"/>
+      <c r="L87" s="18">
+        <v>25465</v>
+      </c>
+      <c r="M87" s="18">
+        <v>8</v>
+      </c>
+      <c r="N87" s="18">
+        <v>13</v>
+      </c>
+      <c r="O87" s="18">
+        <v>21</v>
+      </c>
+      <c r="P87" s="18">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="18">
+        <v>46200</v>
+      </c>
+      <c r="R87" s="18">
+        <v>-5923</v>
+      </c>
+      <c r="S87" s="18">
+        <v>41</v>
+      </c>
+      <c r="T87" s="18">
+        <v>43</v>
+      </c>
+      <c r="U87" s="18">
+        <v>0</v>
+      </c>
+      <c r="V87" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="12">
+        <f>SUM(B2:B87)</f>
+        <v>3830331</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" ref="C88:V88" si="0">SUM(C2:C87)</f>
+        <v>3292</v>
+      </c>
+      <c r="D88" s="12">
         <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="G49" s="12">
+        <v>402</v>
+      </c>
+      <c r="E88" s="12">
         <f t="shared" si="0"/>
-        <v>-469932</v>
-      </c>
-      <c r="H49" s="12">
+        <v>2443.0100000000002</v>
+      </c>
+      <c r="F88" s="12">
         <f t="shared" si="0"/>
-        <v>1154</v>
-      </c>
-      <c r="I49" s="12">
+        <v>928</v>
+      </c>
+      <c r="G88" s="12">
         <f t="shared" si="0"/>
-        <v>1391124</v>
-      </c>
-      <c r="J49" s="12">
+        <v>-881076</v>
+      </c>
+      <c r="H88" s="12">
         <f t="shared" si="0"/>
-        <v>-707031</v>
-      </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12">
-        <f t="shared" ref="L49:V49" si="1">SUM(L2:L46)</f>
-        <v>1411317</v>
-      </c>
-      <c r="M49" s="12">
-        <f t="shared" si="1"/>
-        <v>747</v>
-      </c>
-      <c r="N49" s="12">
-        <f t="shared" si="1"/>
-        <v>1067</v>
-      </c>
-      <c r="O49" s="12">
-        <f t="shared" si="1"/>
-        <v>2150</v>
-      </c>
-      <c r="P49" s="12">
-        <f t="shared" si="1"/>
-        <v>2110</v>
-      </c>
-      <c r="Q49" s="12">
-        <f t="shared" si="1"/>
-        <v>4789400</v>
-      </c>
-      <c r="R49" s="12">
-        <f t="shared" si="1"/>
-        <v>-502865</v>
-      </c>
-      <c r="S49" s="12">
-        <f t="shared" si="1"/>
-        <v>4260</v>
-      </c>
-      <c r="T49" s="12">
-        <f t="shared" si="1"/>
-        <v>3403</v>
-      </c>
-      <c r="U49" s="12">
-        <f t="shared" si="1"/>
-        <v>822</v>
-      </c>
-      <c r="V49" s="12">
-        <f t="shared" si="1"/>
-        <v>822</v>
+        <v>1716</v>
+      </c>
+      <c r="I88" s="12">
+        <f t="shared" si="0"/>
+        <v>2768501</v>
+      </c>
+      <c r="J88" s="12">
+        <f t="shared" si="0"/>
+        <v>-1605731</v>
+      </c>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12">
+        <f t="shared" si="0"/>
+        <v>2792653</v>
+      </c>
+      <c r="M88" s="12">
+        <f t="shared" si="0"/>
+        <v>1263</v>
+      </c>
+      <c r="N88" s="12">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+      <c r="O88" s="12">
+        <f t="shared" si="0"/>
+        <v>3619</v>
+      </c>
+      <c r="P88" s="12">
+        <f t="shared" si="0"/>
+        <v>3198</v>
+      </c>
+      <c r="Q88" s="12">
+        <f t="shared" si="0"/>
+        <v>8080800</v>
+      </c>
+      <c r="R88" s="12">
+        <f t="shared" si="0"/>
+        <v>-882950</v>
+      </c>
+      <c r="S88" s="12">
+        <f t="shared" si="0"/>
+        <v>6817</v>
+      </c>
+      <c r="T88" s="12">
+        <f t="shared" si="0"/>
+        <v>8208</v>
+      </c>
+      <c r="U88" s="12">
+        <f t="shared" si="0"/>
+        <v>5751</v>
+      </c>
+      <c r="V88" s="12">
+        <f t="shared" si="0"/>
+        <v>3781</v>
       </c>
     </row>
   </sheetData>

--- a/日常工作/9月13日统计汇报.xlsx
+++ b/日常工作/9月13日统计汇报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\日常工作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0C744-FD4A-42C0-A09D-FF0AF34B2D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD54CD0-BB03-4F22-80C8-8BED34E94F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,15 +165,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -201,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -246,34 +237,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -282,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,35 +298,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,11 +603,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -654,7 +618,7 @@
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
@@ -753,7 +717,7 @@
       <c r="J2" s="8">
         <v>-270</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="8">
@@ -811,7 +775,7 @@
       <c r="J3" s="8">
         <v>-4661</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="8">
@@ -867,7 +831,7 @@
       <c r="J4" s="8">
         <v>-3500</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="8">
@@ -923,7 +887,7 @@
       <c r="J5" s="8">
         <v>-13500</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="8">
@@ -981,7 +945,7 @@
       <c r="J6" s="8">
         <v>-13700</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="8">
@@ -1039,7 +1003,7 @@
       <c r="J7" s="8">
         <v>-7600</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="8">
@@ -1097,7 +1061,7 @@
       <c r="J8" s="8">
         <v>-4200</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="8">
@@ -1155,7 +1119,7 @@
       <c r="J9" s="8">
         <v>-4600</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="8">
@@ -1215,7 +1179,7 @@
       <c r="J10" s="8">
         <v>-4900</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="8">
@@ -1275,7 +1239,7 @@
       <c r="J11" s="8">
         <v>-5600</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="8">
@@ -1335,7 +1299,7 @@
       <c r="J12" s="8">
         <v>-2000</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="8">
@@ -1395,7 +1359,7 @@
       <c r="J13" s="8">
         <v>-17600</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="8">
@@ -1455,7 +1419,7 @@
       <c r="J14" s="8">
         <v>-6300</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="8">
@@ -1515,7 +1479,7 @@
       <c r="J15" s="8">
         <v>-9400</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="8">
@@ -1575,7 +1539,7 @@
       <c r="J16" s="8">
         <v>-13600</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="8">
@@ -1643,7 +1607,7 @@
       <c r="J17" s="8">
         <v>-12900</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="8">
@@ -1711,7 +1675,7 @@
       <c r="J18" s="8">
         <v>-4300</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="8">
@@ -1779,7 +1743,7 @@
       <c r="J19" s="8">
         <v>-2700</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="8">
@@ -1847,7 +1811,7 @@
       <c r="J20" s="8">
         <v>-82400</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="8">
@@ -1915,7 +1879,7 @@
       <c r="J21" s="8">
         <v>-13200</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="8">
@@ -1983,7 +1947,7 @@
       <c r="J22" s="8">
         <v>-8700</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="8">
@@ -2051,7 +2015,7 @@
       <c r="J23" s="8">
         <v>-9600</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="8">
@@ -2119,7 +2083,7 @@
       <c r="J24" s="11">
         <v>-7600</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="11">
@@ -2187,7 +2151,7 @@
       <c r="J25" s="11">
         <v>-8400</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="11">
@@ -2255,7 +2219,7 @@
       <c r="J26" s="11">
         <v>-7100</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="11">
@@ -2323,7 +2287,7 @@
       <c r="J27" s="11">
         <v>-14500</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="11">
@@ -2391,7 +2355,7 @@
       <c r="J28" s="6">
         <v>-3600</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="6">
@@ -2459,7 +2423,7 @@
       <c r="J29" s="6">
         <v>-20900</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="6">
@@ -2527,7 +2491,7 @@
       <c r="J30" s="6">
         <v>-4800</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="6">
@@ -2595,7 +2559,7 @@
       <c r="J31" s="6">
         <v>-11400</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="6">
@@ -2663,7 +2627,7 @@
       <c r="J32" s="6">
         <v>-13500</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="6">
@@ -2731,7 +2695,7 @@
       <c r="J33" s="6">
         <v>-27700</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="6">
@@ -2799,7 +2763,7 @@
       <c r="J34" s="6">
         <v>-76100</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="6">
@@ -2867,7 +2831,7 @@
       <c r="J35" s="6">
         <v>-65900</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="6">
@@ -2935,7 +2899,7 @@
       <c r="J36" s="6">
         <v>-32400</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="6">
@@ -3003,7 +2967,7 @@
       <c r="J37" s="6">
         <v>-32600</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="6">
@@ -3072,7 +3036,7 @@
       <c r="J38" s="6">
         <v>-7000</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="6">
@@ -3140,7 +3104,7 @@
       <c r="J39" s="6">
         <v>-2000</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="6">
@@ -3208,7 +3172,7 @@
       <c r="J40" s="6">
         <v>-9300</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="6">
@@ -3276,7 +3240,7 @@
       <c r="J41" s="11">
         <v>-13200</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="11">
@@ -3344,7 +3308,7 @@
       <c r="J42" s="6">
         <v>-10700</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="6">
@@ -3412,7 +3376,7 @@
       <c r="J43" s="11">
         <v>-41600</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="11">
@@ -3480,7 +3444,7 @@
       <c r="J44" s="11">
         <v>-26200</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="11">
@@ -3548,7 +3512,7 @@
       <c r="J45" s="11">
         <v>-22100</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="11">
@@ -3616,7 +3580,7 @@
       <c r="J46" s="11">
         <v>-3200</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L46" s="11">
@@ -3684,7 +3648,7 @@
       <c r="J47" s="11">
         <v>-130700</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="11">
@@ -3752,7 +3716,7 @@
       <c r="J48" s="11">
         <v>-56400</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="11">
@@ -3793,67 +3757,67 @@
       <c r="A49" s="10">
         <v>44817</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="19">
         <v>17421</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="19">
         <v>297</v>
       </c>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
+      <c r="D49" s="19">
+        <v>0</v>
+      </c>
+      <c r="E49" s="19">
         <v>624</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
+      <c r="F49" s="19">
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
         <v>-14121</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="19">
         <v>8</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="19">
         <v>19040</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="19">
         <v>-10200</v>
       </c>
-      <c r="K49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="15">
+      <c r="K49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="19">
         <v>16709</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="19">
         <v>9</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="19">
         <v>15</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O49" s="19">
         <v>26</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P49" s="19">
         <v>17</v>
       </c>
-      <c r="Q49" s="15">
+      <c r="Q49" s="19">
         <v>59400</v>
       </c>
-      <c r="R49" s="15">
+      <c r="R49" s="19">
         <v>-11262</v>
       </c>
-      <c r="S49" s="15">
+      <c r="S49" s="19">
         <v>43</v>
       </c>
-      <c r="T49" s="15">
+      <c r="T49" s="19">
         <v>66</v>
       </c>
-      <c r="U49" s="15">
+      <c r="U49" s="19">
         <v>1791</v>
       </c>
-      <c r="V49" s="15">
+      <c r="V49" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3861,67 +3825,67 @@
       <c r="A50" s="10">
         <v>44818</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="19">
         <v>16522</v>
       </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
-        <v>22</v>
-      </c>
-      <c r="E50" s="15">
-        <v>0</v>
-      </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19">
+        <v>22</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
         <v>-4400</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="19">
         <v>15</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="19">
         <v>15836</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="19">
         <v>-6400</v>
       </c>
-      <c r="K50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="15">
+      <c r="K50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="19">
         <v>15994</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="19">
         <v>7</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="19">
         <v>12</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O50" s="19">
         <v>18</v>
       </c>
-      <c r="P50" s="15">
+      <c r="P50" s="19">
         <v>17</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="19">
         <v>39600</v>
       </c>
-      <c r="R50" s="15">
+      <c r="R50" s="19">
         <v>-9535</v>
       </c>
-      <c r="S50" s="15">
+      <c r="S50" s="19">
         <v>35</v>
       </c>
-      <c r="T50" s="15">
+      <c r="T50" s="19">
         <v>61</v>
       </c>
-      <c r="U50" s="15">
-        <v>0</v>
-      </c>
-      <c r="V50" s="15">
+      <c r="U50" s="19">
+        <v>0</v>
+      </c>
+      <c r="V50" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3929,67 +3893,67 @@
       <c r="A51" s="10">
         <v>44819</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="19">
         <v>7700</v>
       </c>
-      <c r="C51" s="15">
-        <v>0</v>
-      </c>
-      <c r="D51" s="15">
-        <v>0</v>
-      </c>
-      <c r="E51" s="15">
-        <v>0</v>
-      </c>
-      <c r="F51" s="15">
-        <v>0</v>
-      </c>
-      <c r="G51" s="15">
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
         <v>-2185</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="19">
         <v>14</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="19">
         <v>14120</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="19">
         <v>-7100</v>
       </c>
-      <c r="K51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="15">
+      <c r="K51" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="19">
         <v>11430</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="19">
         <v>4</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N51" s="19">
         <v>11</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O51" s="19">
         <v>9</v>
       </c>
-      <c r="P51" s="15">
+      <c r="P51" s="19">
         <v>10</v>
       </c>
-      <c r="Q51" s="15">
+      <c r="Q51" s="19">
         <v>19800</v>
       </c>
-      <c r="R51" s="15">
+      <c r="R51" s="19">
         <v>-9652</v>
       </c>
-      <c r="S51" s="15">
+      <c r="S51" s="19">
         <v>19</v>
       </c>
-      <c r="T51" s="15">
+      <c r="T51" s="19">
         <v>58</v>
       </c>
-      <c r="U51" s="15">
-        <v>0</v>
-      </c>
-      <c r="V51" s="15">
+      <c r="U51" s="19">
+        <v>0</v>
+      </c>
+      <c r="V51" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3997,67 +3961,67 @@
       <c r="A52" s="10">
         <v>44820</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="19">
         <v>31900</v>
       </c>
-      <c r="C52" s="15">
-        <v>0</v>
-      </c>
-      <c r="D52" s="15">
-        <v>0</v>
-      </c>
-      <c r="E52" s="15">
-        <v>0</v>
-      </c>
-      <c r="F52" s="15">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
+      <c r="C52" s="19">
+        <v>0</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0</v>
+      </c>
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+      <c r="G52" s="19">
         <v>-25226</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="19">
         <v>21</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="19">
         <v>11123</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="19">
         <v>-9800</v>
       </c>
-      <c r="K52" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" s="15">
+      <c r="K52" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="19">
         <v>12092</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="19">
         <v>4</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="19">
         <v>9</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="19">
         <v>11</v>
       </c>
-      <c r="P52" s="15">
+      <c r="P52" s="19">
         <v>9</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="Q52" s="19">
         <v>26400</v>
       </c>
-      <c r="R52" s="15">
+      <c r="R52" s="19">
         <v>-12116</v>
       </c>
-      <c r="S52" s="15">
+      <c r="S52" s="19">
         <v>20</v>
       </c>
-      <c r="T52" s="15">
+      <c r="T52" s="19">
         <v>75</v>
       </c>
-      <c r="U52" s="15">
-        <v>0</v>
-      </c>
-      <c r="V52" s="15">
+      <c r="U52" s="19">
+        <v>0</v>
+      </c>
+      <c r="V52" s="19">
         <v>21</v>
       </c>
     </row>
@@ -4065,67 +4029,67 @@
       <c r="A53" s="10">
         <v>44821</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="19">
         <v>6646</v>
       </c>
-      <c r="C53" s="15">
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="C53" s="19">
+        <v>0</v>
+      </c>
+      <c r="D53" s="19">
         <v>46</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="19">
         <v>199</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+      <c r="G53" s="19">
         <v>-2384</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="19">
         <v>12</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="19">
         <v>16504</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="19">
         <v>-2000</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" s="15">
+      <c r="K53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="19">
         <v>16173</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="19">
         <v>6</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="19">
         <v>15</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O53" s="19">
         <v>19</v>
       </c>
-      <c r="P53" s="15">
+      <c r="P53" s="19">
         <v>11</v>
       </c>
-      <c r="Q53" s="15">
+      <c r="Q53" s="19">
         <v>39600</v>
       </c>
-      <c r="R53" s="15">
+      <c r="R53" s="19">
         <v>-7972</v>
       </c>
-      <c r="S53" s="15">
+      <c r="S53" s="19">
         <v>30</v>
       </c>
-      <c r="T53" s="15">
+      <c r="T53" s="19">
         <v>63</v>
       </c>
-      <c r="U53" s="15">
-        <v>0</v>
-      </c>
-      <c r="V53" s="15">
+      <c r="U53" s="19">
+        <v>0</v>
+      </c>
+      <c r="V53" s="19">
         <v>15</v>
       </c>
     </row>
@@ -4133,67 +4097,67 @@
       <c r="A54" s="10">
         <v>44822</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="19">
         <v>9900</v>
       </c>
-      <c r="C54" s="15">
-        <v>0</v>
-      </c>
-      <c r="D54" s="15">
-        <v>0</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
-      <c r="F54" s="15">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15">
+      <c r="C54" s="19">
+        <v>0</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0</v>
+      </c>
+      <c r="F54" s="19">
+        <v>0</v>
+      </c>
+      <c r="G54" s="19">
         <v>-3041</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="19">
         <v>12</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="19">
         <v>8867</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="19">
         <v>-11100</v>
       </c>
-      <c r="K54" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="15">
+      <c r="K54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="19">
         <v>10603</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M54" s="19">
         <v>4</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="19">
         <v>13</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O54" s="19">
         <v>11</v>
       </c>
-      <c r="P54" s="15">
+      <c r="P54" s="19">
         <v>9</v>
       </c>
-      <c r="Q54" s="15">
+      <c r="Q54" s="19">
         <v>26400</v>
       </c>
-      <c r="R54" s="15">
+      <c r="R54" s="19">
         <v>-7705</v>
       </c>
-      <c r="S54" s="15">
+      <c r="S54" s="19">
         <v>20</v>
       </c>
-      <c r="T54" s="15">
+      <c r="T54" s="19">
         <v>60</v>
       </c>
-      <c r="U54" s="15">
-        <v>0</v>
-      </c>
-      <c r="V54" s="15">
+      <c r="U54" s="19">
+        <v>0</v>
+      </c>
+      <c r="V54" s="19">
         <v>15</v>
       </c>
     </row>
@@ -4201,67 +4165,67 @@
       <c r="A55" s="10">
         <v>44823</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="19">
         <v>13200</v>
       </c>
-      <c r="C55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
-        <v>0</v>
-      </c>
-      <c r="E55" s="15">
-        <v>0</v>
-      </c>
-      <c r="F55" s="15">
-        <v>0</v>
-      </c>
-      <c r="G55" s="15">
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0</v>
+      </c>
+      <c r="E55" s="19">
+        <v>0</v>
+      </c>
+      <c r="F55" s="19">
+        <v>0</v>
+      </c>
+      <c r="G55" s="19">
         <v>-5500</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="19">
         <v>19</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="19">
         <v>12379</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="19">
         <v>-8300</v>
       </c>
-      <c r="K55" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="15">
+      <c r="K55" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="19">
         <v>11775</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="19">
         <v>5</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="19">
         <v>15</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O55" s="19">
         <v>13</v>
       </c>
-      <c r="P55" s="15">
+      <c r="P55" s="19">
         <v>12</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q55" s="19">
         <v>33000</v>
       </c>
-      <c r="R55" s="15">
+      <c r="R55" s="19">
         <v>-7749</v>
       </c>
-      <c r="S55" s="15">
+      <c r="S55" s="19">
         <v>25</v>
       </c>
-      <c r="T55" s="15">
+      <c r="T55" s="19">
         <v>57</v>
       </c>
-      <c r="U55" s="15">
-        <v>0</v>
-      </c>
-      <c r="V55" s="15">
+      <c r="U55" s="19">
+        <v>0</v>
+      </c>
+      <c r="V55" s="19">
         <v>15</v>
       </c>
     </row>
@@ -4269,67 +4233,67 @@
       <c r="A56" s="10">
         <v>44824</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="19">
         <v>7700</v>
       </c>
-      <c r="C56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
-        <v>0</v>
-      </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="15">
+      <c r="C56" s="19">
+        <v>0</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0</v>
+      </c>
+      <c r="F56" s="19">
+        <v>0</v>
+      </c>
+      <c r="G56" s="19">
         <v>-1100</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="19">
         <v>9</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="19">
         <v>9364</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="19">
         <v>-8300</v>
       </c>
-      <c r="K56" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="15">
+      <c r="K56" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="19">
         <v>9770</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="19">
         <v>3</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="19">
         <v>11</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O56" s="19">
         <v>9</v>
       </c>
-      <c r="P56" s="15">
+      <c r="P56" s="19">
         <v>6</v>
       </c>
-      <c r="Q56" s="15">
+      <c r="Q56" s="19">
         <v>19800</v>
       </c>
-      <c r="R56" s="15">
+      <c r="R56" s="19">
         <v>-5729</v>
       </c>
-      <c r="S56" s="15">
+      <c r="S56" s="19">
         <v>15</v>
       </c>
-      <c r="T56" s="15">
+      <c r="T56" s="19">
         <v>59</v>
       </c>
-      <c r="U56" s="15">
-        <v>0</v>
-      </c>
-      <c r="V56" s="15">
+      <c r="U56" s="19">
+        <v>0</v>
+      </c>
+      <c r="V56" s="19">
         <v>9</v>
       </c>
     </row>
@@ -4337,67 +4301,67 @@
       <c r="A57" s="10">
         <v>44825</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="19">
         <v>58300</v>
       </c>
-      <c r="C57" s="17">
-        <v>0</v>
-      </c>
-      <c r="D57" s="17">
-        <v>0</v>
-      </c>
-      <c r="E57" s="17">
-        <v>0</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
+      <c r="C57" s="19">
+        <v>0</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0</v>
+      </c>
+      <c r="G57" s="19">
         <v>-18688</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="19">
         <v>13</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="19">
         <v>27906</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="19">
         <v>-11600</v>
       </c>
-      <c r="K57" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="17">
+      <c r="K57" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="19">
         <v>29108</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="19">
         <v>11</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="19">
         <v>17</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="19">
         <v>30</v>
       </c>
-      <c r="P57" s="17">
-        <v>22</v>
-      </c>
-      <c r="Q57" s="17">
+      <c r="P57" s="19">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="19">
         <v>66000</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="19">
         <v>-9827</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="19">
         <v>52</v>
       </c>
-      <c r="T57" s="17">
+      <c r="T57" s="19">
         <v>80</v>
       </c>
-      <c r="U57" s="17">
-        <v>0</v>
-      </c>
-      <c r="V57" s="17">
+      <c r="U57" s="19">
+        <v>0</v>
+      </c>
+      <c r="V57" s="19">
         <v>18</v>
       </c>
     </row>
@@ -4405,67 +4369,67 @@
       <c r="A58" s="10">
         <v>44826</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="19">
         <v>15518</v>
       </c>
-      <c r="C58" s="15">
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
         <v>46</v>
       </c>
-      <c r="E58" s="15">
-        <v>0</v>
-      </c>
-      <c r="F58" s="15">
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19">
         <v>72</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="19">
         <v>-7573</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="19">
         <v>21</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="19">
         <v>13520</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="19">
         <v>-6700</v>
       </c>
-      <c r="K58" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="15">
+      <c r="K58" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="19">
         <v>14675</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="19">
         <v>7</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="19">
         <v>16</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O58" s="19">
         <v>18</v>
       </c>
-      <c r="P58" s="15">
+      <c r="P58" s="19">
         <v>16</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q58" s="19">
         <v>39600</v>
       </c>
-      <c r="R58" s="15">
+      <c r="R58" s="19">
         <v>-7812</v>
       </c>
-      <c r="S58" s="15">
+      <c r="S58" s="19">
         <v>34</v>
       </c>
-      <c r="T58" s="15">
+      <c r="T58" s="19">
         <v>76</v>
       </c>
-      <c r="U58" s="15">
+      <c r="U58" s="19">
         <v>390</v>
       </c>
-      <c r="V58" s="15">
+      <c r="V58" s="19">
         <v>183</v>
       </c>
     </row>
@@ -4473,67 +4437,67 @@
       <c r="A59" s="10">
         <v>44827</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="19">
         <v>22000</v>
       </c>
-      <c r="C59" s="15">
-        <v>0</v>
-      </c>
-      <c r="D59" s="15">
-        <v>0</v>
-      </c>
-      <c r="E59" s="15">
-        <v>0</v>
-      </c>
-      <c r="F59" s="15">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15">
+      <c r="C59" s="19">
+        <v>0</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0</v>
+      </c>
+      <c r="F59" s="19">
+        <v>0</v>
+      </c>
+      <c r="G59" s="19">
         <v>-8800</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="19">
         <v>32</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="19">
         <v>34588</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="19">
         <v>-12700</v>
       </c>
-      <c r="K59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="15">
+      <c r="K59" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="19">
         <v>37267</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="19">
         <v>12</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="19">
         <v>23</v>
       </c>
-      <c r="O59" s="15">
+      <c r="O59" s="19">
         <v>35</v>
       </c>
-      <c r="P59" s="15">
+      <c r="P59" s="19">
         <v>26</v>
       </c>
-      <c r="Q59" s="15">
+      <c r="Q59" s="19">
         <v>79200</v>
       </c>
-      <c r="R59" s="15">
+      <c r="R59" s="19">
         <v>-7904</v>
       </c>
-      <c r="S59" s="15">
+      <c r="S59" s="19">
         <v>61</v>
       </c>
-      <c r="T59" s="15">
+      <c r="T59" s="19">
         <v>59</v>
       </c>
-      <c r="U59" s="15">
-        <v>0</v>
-      </c>
-      <c r="V59" s="15">
+      <c r="U59" s="19">
+        <v>0</v>
+      </c>
+      <c r="V59" s="19">
         <v>102</v>
       </c>
     </row>
@@ -4541,67 +4505,67 @@
       <c r="A60" s="10">
         <v>44828</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="19">
         <v>40700</v>
       </c>
-      <c r="C60" s="15">
-        <v>0</v>
-      </c>
-      <c r="D60" s="15">
-        <v>0</v>
-      </c>
-      <c r="E60" s="15">
-        <v>0</v>
-      </c>
-      <c r="F60" s="15">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="C60" s="19">
+        <v>0</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0</v>
+      </c>
+      <c r="E60" s="19">
+        <v>0</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0</v>
+      </c>
+      <c r="G60" s="19">
         <v>-2200</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="19">
         <v>25</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="19">
         <v>10648</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="19">
         <v>-1800</v>
       </c>
-      <c r="K60" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="15">
+      <c r="K60" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="19">
         <v>10960</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="19">
         <v>4</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="19">
         <v>12</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O60" s="19">
         <v>9</v>
       </c>
-      <c r="P60" s="15">
+      <c r="P60" s="19">
         <v>11</v>
       </c>
-      <c r="Q60" s="15">
+      <c r="Q60" s="19">
         <v>26400</v>
       </c>
-      <c r="R60" s="15">
+      <c r="R60" s="19">
         <v>-10132</v>
       </c>
-      <c r="S60" s="15">
+      <c r="S60" s="19">
         <v>20</v>
       </c>
-      <c r="T60" s="15">
+      <c r="T60" s="19">
         <v>84</v>
       </c>
-      <c r="U60" s="15">
-        <v>0</v>
-      </c>
-      <c r="V60" s="15">
+      <c r="U60" s="19">
+        <v>0</v>
+      </c>
+      <c r="V60" s="19">
         <v>127</v>
       </c>
     </row>
@@ -4609,67 +4573,67 @@
       <c r="A61" s="10">
         <v>44829</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="19">
         <v>9900</v>
       </c>
-      <c r="C61" s="15">
-        <v>0</v>
-      </c>
-      <c r="D61" s="15">
-        <v>0</v>
-      </c>
-      <c r="E61" s="15">
-        <v>0</v>
-      </c>
-      <c r="F61" s="15">
-        <v>0</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="C61" s="19">
+        <v>0</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0</v>
+      </c>
+      <c r="E61" s="19">
+        <v>0</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+      <c r="G61" s="19">
         <v>-577</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="19">
         <v>15</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="19">
         <v>30282</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="19">
         <v>-36100</v>
       </c>
-      <c r="K61" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="18">
+      <c r="K61" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="19">
         <v>31944</v>
       </c>
-      <c r="M61" s="18">
+      <c r="M61" s="19">
         <v>6</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="19">
         <v>15</v>
       </c>
-      <c r="O61" s="18">
+      <c r="O61" s="19">
         <v>18</v>
       </c>
-      <c r="P61" s="18">
+      <c r="P61" s="19">
         <v>11</v>
       </c>
-      <c r="Q61" s="18">
+      <c r="Q61" s="19">
         <v>33000</v>
       </c>
-      <c r="R61" s="18">
+      <c r="R61" s="19">
         <v>-8126</v>
       </c>
-      <c r="S61" s="18">
+      <c r="S61" s="19">
         <v>29</v>
       </c>
-      <c r="T61" s="18">
+      <c r="T61" s="19">
         <v>77</v>
       </c>
-      <c r="U61" s="18">
-        <v>0</v>
-      </c>
-      <c r="V61" s="18">
+      <c r="U61" s="19">
+        <v>0</v>
+      </c>
+      <c r="V61" s="19">
         <v>39</v>
       </c>
     </row>
@@ -4704,7 +4668,7 @@
       <c r="J62" s="19">
         <v>-24400</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L62" s="19">
@@ -4745,67 +4709,67 @@
       <c r="A63" s="10">
         <v>44831</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="19">
         <v>8800</v>
       </c>
-      <c r="C63" s="15">
-        <v>0</v>
-      </c>
-      <c r="D63" s="15">
-        <v>0</v>
-      </c>
-      <c r="E63" s="15">
-        <v>0</v>
-      </c>
-      <c r="F63" s="15">
-        <v>0</v>
-      </c>
-      <c r="G63" s="15">
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+      <c r="E63" s="19">
+        <v>0</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0</v>
+      </c>
+      <c r="G63" s="19">
         <v>-4400</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="19">
         <v>7</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="19">
         <v>12124</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="19">
         <v>-9700</v>
       </c>
-      <c r="K63" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" s="15">
+      <c r="K63" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="19">
         <v>12448</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="19">
         <v>5</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="19">
         <v>11</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O63" s="19">
         <v>14</v>
       </c>
-      <c r="P63" s="15">
+      <c r="P63" s="19">
         <v>10</v>
       </c>
-      <c r="Q63" s="15">
+      <c r="Q63" s="19">
         <v>33000</v>
       </c>
-      <c r="R63" s="15">
+      <c r="R63" s="19">
         <v>-6101</v>
       </c>
-      <c r="S63" s="15">
+      <c r="S63" s="19">
         <v>24</v>
       </c>
-      <c r="T63" s="15">
+      <c r="T63" s="19">
         <v>59</v>
       </c>
-      <c r="U63" s="15">
-        <v>0</v>
-      </c>
-      <c r="V63" s="15">
+      <c r="U63" s="19">
+        <v>0</v>
+      </c>
+      <c r="V63" s="19">
         <v>9</v>
       </c>
     </row>
@@ -4813,67 +4777,67 @@
       <c r="A64" s="10">
         <v>44832</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="19">
         <v>29700</v>
       </c>
-      <c r="C64" s="15">
-        <v>0</v>
-      </c>
-      <c r="D64" s="15">
-        <v>0</v>
-      </c>
-      <c r="E64" s="15">
-        <v>0</v>
-      </c>
-      <c r="F64" s="15">
-        <v>0</v>
-      </c>
-      <c r="G64" s="15">
+      <c r="C64" s="19">
+        <v>0</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0</v>
+      </c>
+      <c r="E64" s="19">
+        <v>0</v>
+      </c>
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19">
         <v>-10989</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="19">
         <v>11</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="19">
         <v>14360</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="19">
         <v>-2500</v>
       </c>
-      <c r="K64" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="15">
+      <c r="K64" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="19">
         <v>14731</v>
       </c>
-      <c r="M64" s="15">
+      <c r="M64" s="19">
         <v>10</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="19">
         <v>16</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O64" s="19">
         <v>27</v>
       </c>
-      <c r="P64" s="15">
+      <c r="P64" s="19">
         <v>20</v>
       </c>
-      <c r="Q64" s="15">
+      <c r="Q64" s="19">
         <v>59400</v>
       </c>
-      <c r="R64" s="15">
+      <c r="R64" s="19">
         <v>-8516</v>
       </c>
-      <c r="S64" s="15">
+      <c r="S64" s="19">
         <v>47</v>
       </c>
-      <c r="T64" s="15">
+      <c r="T64" s="19">
         <v>59</v>
       </c>
-      <c r="U64" s="15">
-        <v>0</v>
-      </c>
-      <c r="V64" s="15">
+      <c r="U64" s="19">
+        <v>0</v>
+      </c>
+      <c r="V64" s="19">
         <v>13</v>
       </c>
     </row>
@@ -4881,67 +4845,67 @@
       <c r="A65" s="10">
         <v>44833</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="19">
         <v>219541</v>
       </c>
-      <c r="C65" s="17">
-        <v>0</v>
-      </c>
-      <c r="D65" s="17">
-        <v>0</v>
-      </c>
-      <c r="E65" s="17">
-        <v>0</v>
-      </c>
-      <c r="F65" s="17">
+      <c r="C65" s="19">
+        <v>0</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0</v>
+      </c>
+      <c r="E65" s="19">
+        <v>0</v>
+      </c>
+      <c r="F65" s="19">
         <v>641</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="19">
         <v>-5567</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="19">
         <v>10</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="19">
         <v>23346</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="19">
         <v>-10300</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="17">
+      <c r="K65" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="19">
         <v>22839</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="19">
         <v>16</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="19">
         <v>23</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="19">
         <v>47</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="19">
         <v>33</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="19">
         <v>105600</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="19">
         <v>-16488</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="19">
         <v>80</v>
       </c>
-      <c r="T65" s="17">
+      <c r="T65" s="19">
         <v>250</v>
       </c>
-      <c r="U65" s="17">
+      <c r="U65" s="19">
         <v>2094</v>
       </c>
-      <c r="V65" s="17">
+      <c r="V65" s="19">
         <v>1326</v>
       </c>
     </row>
@@ -4949,67 +4913,67 @@
       <c r="A66" s="10">
         <v>44834</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="19">
         <v>70400</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="19">
         <v>199</v>
       </c>
-      <c r="D66" s="15">
-        <v>0</v>
-      </c>
-      <c r="E66" s="15">
+      <c r="D66" s="19">
+        <v>0</v>
+      </c>
+      <c r="E66" s="19">
         <v>99</v>
       </c>
-      <c r="F66" s="15">
-        <v>0</v>
-      </c>
-      <c r="G66" s="15">
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19">
         <v>-11821</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="19">
         <v>15</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="19">
         <v>42994</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="19">
         <v>-7200</v>
       </c>
-      <c r="K66" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="15">
+      <c r="K66" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="19">
         <v>46994</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="19">
         <v>34</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="19">
         <v>25</v>
       </c>
-      <c r="O66" s="15">
+      <c r="O66" s="19">
         <v>101</v>
       </c>
-      <c r="P66" s="15">
+      <c r="P66" s="19">
         <v>71</v>
       </c>
-      <c r="Q66" s="15">
+      <c r="Q66" s="19">
         <v>224400</v>
       </c>
-      <c r="R66" s="15">
+      <c r="R66" s="19">
         <v>-9894</v>
       </c>
-      <c r="S66" s="15">
+      <c r="S66" s="19">
         <v>172</v>
       </c>
-      <c r="T66" s="15">
+      <c r="T66" s="19">
         <v>210</v>
       </c>
-      <c r="U66" s="15">
-        <v>0</v>
-      </c>
-      <c r="V66" s="15">
+      <c r="U66" s="19">
+        <v>0</v>
+      </c>
+      <c r="V66" s="19">
         <v>806</v>
       </c>
     </row>
@@ -5017,67 +4981,67 @@
       <c r="A67" s="10">
         <v>44835</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="19">
         <v>25300</v>
       </c>
-      <c r="C67" s="15">
-        <v>0</v>
-      </c>
-      <c r="D67" s="15">
-        <v>0</v>
-      </c>
-      <c r="E67" s="15">
-        <v>0</v>
-      </c>
-      <c r="F67" s="15">
-        <v>0</v>
-      </c>
-      <c r="G67" s="15">
+      <c r="C67" s="19">
+        <v>0</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
         <v>-3884</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="19">
         <v>17</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="19">
         <v>20111</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="19">
         <v>-3200</v>
       </c>
-      <c r="K67" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="15">
+      <c r="K67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="19">
         <v>21355</v>
       </c>
-      <c r="M67" s="15">
+      <c r="M67" s="19">
         <v>13</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N67" s="19">
         <v>20</v>
       </c>
-      <c r="O67" s="15">
+      <c r="O67" s="19">
         <v>37</v>
       </c>
-      <c r="P67" s="15">
+      <c r="P67" s="19">
         <v>29</v>
       </c>
-      <c r="Q67" s="15">
+      <c r="Q67" s="19">
         <v>85800</v>
       </c>
-      <c r="R67" s="15">
+      <c r="R67" s="19">
         <v>-8582</v>
       </c>
-      <c r="S67" s="15">
+      <c r="S67" s="19">
         <v>66</v>
       </c>
-      <c r="T67" s="15">
+      <c r="T67" s="19">
         <v>193</v>
       </c>
-      <c r="U67" s="15">
-        <v>0</v>
-      </c>
-      <c r="V67" s="15">
+      <c r="U67" s="19">
+        <v>0</v>
+      </c>
+      <c r="V67" s="19">
         <v>23</v>
       </c>
     </row>
@@ -5085,67 +5049,67 @@
       <c r="A68" s="10">
         <v>44836</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="19">
         <v>337700</v>
       </c>
-      <c r="C68" s="15">
-        <v>0</v>
-      </c>
-      <c r="D68" s="15">
-        <v>0</v>
-      </c>
-      <c r="E68" s="15">
-        <v>0</v>
-      </c>
-      <c r="F68" s="15">
-        <v>0</v>
-      </c>
-      <c r="G68" s="15">
+      <c r="C68" s="19">
+        <v>0</v>
+      </c>
+      <c r="D68" s="19">
+        <v>0</v>
+      </c>
+      <c r="E68" s="19">
+        <v>0</v>
+      </c>
+      <c r="F68" s="19">
+        <v>0</v>
+      </c>
+      <c r="G68" s="19">
         <v>-11491</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="19">
         <v>38</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="19">
         <v>37499</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="19">
         <v>-1700</v>
       </c>
-      <c r="K68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" s="15">
+      <c r="K68" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="19">
         <v>39568</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M68" s="19">
         <v>30</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="19">
         <v>40</v>
       </c>
-      <c r="O68" s="15">
+      <c r="O68" s="19">
         <v>89</v>
       </c>
-      <c r="P68" s="15">
+      <c r="P68" s="19">
         <v>60</v>
       </c>
-      <c r="Q68" s="15">
+      <c r="Q68" s="19">
         <v>198000</v>
       </c>
-      <c r="R68" s="15">
+      <c r="R68" s="19">
         <v>-22906</v>
       </c>
-      <c r="S68" s="15">
+      <c r="S68" s="19">
         <v>149</v>
       </c>
-      <c r="T68" s="15">
+      <c r="T68" s="19">
         <v>411</v>
       </c>
-      <c r="U68" s="15">
-        <v>0</v>
-      </c>
-      <c r="V68" s="15">
+      <c r="U68" s="19">
+        <v>0</v>
+      </c>
+      <c r="V68" s="19">
         <v>36</v>
       </c>
     </row>
@@ -5153,67 +5117,67 @@
       <c r="A69" s="10">
         <v>44837</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="19">
         <v>75900</v>
       </c>
-      <c r="C69" s="15">
-        <v>0</v>
-      </c>
-      <c r="D69" s="15">
-        <v>0</v>
-      </c>
-      <c r="E69" s="15">
-        <v>0</v>
-      </c>
-      <c r="F69" s="15">
-        <v>0</v>
-      </c>
-      <c r="G69" s="18">
+      <c r="C69" s="19">
+        <v>0</v>
+      </c>
+      <c r="D69" s="19">
+        <v>0</v>
+      </c>
+      <c r="E69" s="19">
+        <v>0</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+      <c r="G69" s="19">
         <v>-35951</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="19">
         <v>20</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="19">
         <v>71076</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="19">
         <v>-4000</v>
       </c>
-      <c r="K69" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" s="18">
+      <c r="K69" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="19">
         <v>60220</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="19">
         <v>38</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="19">
         <v>41</v>
       </c>
-      <c r="O69" s="18">
+      <c r="O69" s="19">
         <v>113</v>
       </c>
-      <c r="P69" s="18">
+      <c r="P69" s="19">
         <v>78</v>
       </c>
-      <c r="Q69" s="18">
+      <c r="Q69" s="19">
         <v>250800</v>
       </c>
-      <c r="R69" s="18">
+      <c r="R69" s="19">
         <v>-9055</v>
       </c>
-      <c r="S69" s="18">
+      <c r="S69" s="19">
         <v>191</v>
       </c>
-      <c r="T69" s="18">
+      <c r="T69" s="19">
         <v>365</v>
       </c>
-      <c r="U69" s="18">
-        <v>0</v>
-      </c>
-      <c r="V69" s="18">
+      <c r="U69" s="19">
+        <v>0</v>
+      </c>
+      <c r="V69" s="19">
         <v>13</v>
       </c>
     </row>
@@ -5221,67 +5185,67 @@
       <c r="A70" s="10">
         <v>44838</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="19">
         <v>29700</v>
       </c>
-      <c r="C70" s="15">
-        <v>0</v>
-      </c>
-      <c r="D70" s="15">
-        <v>0</v>
-      </c>
-      <c r="E70" s="15">
-        <v>0</v>
-      </c>
-      <c r="F70" s="15">
-        <v>0</v>
-      </c>
-      <c r="G70" s="18">
+      <c r="C70" s="19">
+        <v>0</v>
+      </c>
+      <c r="D70" s="19">
+        <v>0</v>
+      </c>
+      <c r="E70" s="19">
+        <v>0</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0</v>
+      </c>
+      <c r="G70" s="19">
         <v>-11000</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="19">
         <v>21</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="19">
         <v>30449</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J70" s="19">
         <v>-4100</v>
       </c>
-      <c r="K70" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="18">
+      <c r="K70" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="19">
         <v>36431</v>
       </c>
-      <c r="M70" s="18">
+      <c r="M70" s="19">
         <v>27</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N70" s="19">
         <v>26</v>
       </c>
-      <c r="O70" s="18">
+      <c r="O70" s="19">
         <v>78</v>
       </c>
-      <c r="P70" s="18">
+      <c r="P70" s="19">
         <v>57</v>
       </c>
-      <c r="Q70" s="18">
+      <c r="Q70" s="19">
         <v>178200</v>
       </c>
-      <c r="R70" s="18">
+      <c r="R70" s="19">
         <v>-9236</v>
       </c>
-      <c r="S70" s="18">
+      <c r="S70" s="19">
         <v>135</v>
       </c>
-      <c r="T70" s="18">
+      <c r="T70" s="19">
         <v>311</v>
       </c>
-      <c r="U70" s="18">
-        <v>0</v>
-      </c>
-      <c r="V70" s="18">
+      <c r="U70" s="19">
+        <v>0</v>
+      </c>
+      <c r="V70" s="19">
         <v>13</v>
       </c>
     </row>
@@ -5289,67 +5253,67 @@
       <c r="A71" s="10">
         <v>44839</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="19">
         <v>102300</v>
       </c>
-      <c r="C71" s="15">
-        <v>0</v>
-      </c>
-      <c r="D71" s="15">
-        <v>0</v>
-      </c>
-      <c r="E71" s="15">
+      <c r="C71" s="19">
+        <v>0</v>
+      </c>
+      <c r="D71" s="19">
+        <v>0</v>
+      </c>
+      <c r="E71" s="19">
         <v>319</v>
       </c>
-      <c r="F71" s="15">
-        <v>0</v>
-      </c>
-      <c r="G71" s="18">
+      <c r="F71" s="19">
+        <v>0</v>
+      </c>
+      <c r="G71" s="19">
         <v>-67431</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="19">
         <v>14</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="19">
         <v>126798</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="19">
         <v>-10900</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="18">
+      <c r="K71" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="19">
         <v>125016</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="19">
         <v>39</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N71" s="19">
         <v>23</v>
       </c>
-      <c r="O71" s="18">
+      <c r="O71" s="19">
         <v>118</v>
       </c>
-      <c r="P71" s="18">
+      <c r="P71" s="19">
         <v>77</v>
       </c>
-      <c r="Q71" s="18">
+      <c r="Q71" s="19">
         <v>257400</v>
       </c>
-      <c r="R71" s="18">
+      <c r="R71" s="19">
         <v>-9538</v>
       </c>
-      <c r="S71" s="18">
+      <c r="S71" s="19">
         <v>195</v>
       </c>
-      <c r="T71" s="18">
+      <c r="T71" s="19">
         <v>287</v>
       </c>
-      <c r="U71" s="18">
-        <v>0</v>
-      </c>
-      <c r="V71" s="18">
+      <c r="U71" s="19">
+        <v>0</v>
+      </c>
+      <c r="V71" s="19">
         <v>13</v>
       </c>
     </row>
@@ -5357,67 +5321,67 @@
       <c r="A72" s="10">
         <v>44840</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="19">
         <v>79200</v>
       </c>
-      <c r="C72" s="15">
-        <v>0</v>
-      </c>
-      <c r="D72" s="15">
-        <v>0</v>
-      </c>
-      <c r="E72" s="15">
-        <v>0</v>
-      </c>
-      <c r="F72" s="15">
-        <v>0</v>
-      </c>
-      <c r="G72" s="18">
+      <c r="C72" s="19">
+        <v>0</v>
+      </c>
+      <c r="D72" s="19">
+        <v>0</v>
+      </c>
+      <c r="E72" s="19">
+        <v>0</v>
+      </c>
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="19">
         <v>-14300</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="19">
         <v>24</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="19">
         <v>39759</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J72" s="19">
         <v>-11000</v>
       </c>
-      <c r="K72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="18">
+      <c r="K72" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="19">
         <v>50268</v>
       </c>
-      <c r="M72" s="18">
+      <c r="M72" s="19">
         <v>40</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N72" s="19">
         <v>27</v>
       </c>
-      <c r="O72" s="18">
+      <c r="O72" s="19">
         <v>117</v>
       </c>
-      <c r="P72" s="18">
+      <c r="P72" s="19">
         <v>80</v>
       </c>
-      <c r="Q72" s="18">
+      <c r="Q72" s="19">
         <v>264000</v>
       </c>
-      <c r="R72" s="18">
+      <c r="R72" s="19">
         <v>-12553</v>
       </c>
-      <c r="S72" s="18">
+      <c r="S72" s="19">
         <v>197</v>
       </c>
-      <c r="T72" s="18">
+      <c r="T72" s="19">
         <v>242</v>
       </c>
-      <c r="U72" s="18">
-        <v>0</v>
-      </c>
-      <c r="V72" s="18">
+      <c r="U72" s="19">
+        <v>0</v>
+      </c>
+      <c r="V72" s="19">
         <v>18</v>
       </c>
     </row>
@@ -5425,67 +5389,67 @@
       <c r="A73" s="10">
         <v>44841</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="19">
         <v>52800</v>
       </c>
-      <c r="C73" s="15">
-        <v>0</v>
-      </c>
-      <c r="D73" s="15">
-        <v>0</v>
-      </c>
-      <c r="E73" s="15">
-        <v>0</v>
-      </c>
-      <c r="F73" s="15">
-        <v>0</v>
-      </c>
-      <c r="G73" s="18">
+      <c r="C73" s="19">
+        <v>0</v>
+      </c>
+      <c r="D73" s="19">
+        <v>0</v>
+      </c>
+      <c r="E73" s="19">
+        <v>0</v>
+      </c>
+      <c r="F73" s="19">
+        <v>0</v>
+      </c>
+      <c r="G73" s="19">
         <v>-25644</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="19">
         <v>12</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="19">
         <v>87645</v>
       </c>
-      <c r="J73" s="18">
+      <c r="J73" s="19">
         <v>-27700</v>
       </c>
-      <c r="K73" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="18">
+      <c r="K73" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="19">
         <v>93641</v>
       </c>
-      <c r="M73" s="18">
+      <c r="M73" s="19">
         <v>27</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N73" s="19">
         <v>25</v>
       </c>
-      <c r="O73" s="18">
+      <c r="O73" s="19">
         <v>84</v>
       </c>
-      <c r="P73" s="18">
+      <c r="P73" s="19">
         <v>54</v>
       </c>
-      <c r="Q73" s="18">
+      <c r="Q73" s="19">
         <v>178200</v>
       </c>
-      <c r="R73" s="18">
+      <c r="R73" s="19">
         <v>-10271</v>
       </c>
-      <c r="S73" s="18">
+      <c r="S73" s="19">
         <v>138</v>
       </c>
-      <c r="T73" s="18">
+      <c r="T73" s="19">
         <v>206</v>
       </c>
-      <c r="U73" s="18">
-        <v>0</v>
-      </c>
-      <c r="V73" s="18">
+      <c r="U73" s="19">
+        <v>0</v>
+      </c>
+      <c r="V73" s="19">
         <v>13</v>
       </c>
     </row>
@@ -5493,65 +5457,67 @@
       <c r="A74" s="10">
         <v>44842</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="19">
         <v>8800</v>
       </c>
-      <c r="C74" s="17">
-        <v>0</v>
-      </c>
-      <c r="D74" s="17">
-        <v>0</v>
-      </c>
-      <c r="E74" s="17">
-        <v>0</v>
-      </c>
-      <c r="F74" s="17">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17">
+      <c r="C74" s="19">
+        <v>0</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0</v>
+      </c>
+      <c r="E74" s="19">
+        <v>0</v>
+      </c>
+      <c r="F74" s="19">
+        <v>0</v>
+      </c>
+      <c r="G74" s="19">
         <v>-5284</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="19">
         <v>13</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="19">
         <v>41661</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J74" s="19">
         <v>-80500</v>
       </c>
-      <c r="K74" s="21"/>
-      <c r="L74" s="17">
+      <c r="K74" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="19">
         <v>33311</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="19">
         <v>23</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N74" s="19">
         <v>19</v>
       </c>
-      <c r="O74" s="17">
+      <c r="O74" s="19">
         <v>66</v>
       </c>
-      <c r="P74" s="17">
+      <c r="P74" s="19">
         <v>49</v>
       </c>
-      <c r="Q74" s="17">
+      <c r="Q74" s="19">
         <v>151800</v>
       </c>
-      <c r="R74" s="17">
+      <c r="R74" s="19">
         <v>-10731</v>
       </c>
-      <c r="S74" s="17">
+      <c r="S74" s="19">
         <v>115</v>
       </c>
-      <c r="T74" s="17">
+      <c r="T74" s="19">
         <v>145</v>
       </c>
-      <c r="U74" s="17">
-        <v>0</v>
-      </c>
-      <c r="V74" s="17">
+      <c r="U74" s="19">
+        <v>0</v>
+      </c>
+      <c r="V74" s="19">
         <v>13</v>
       </c>
     </row>
@@ -5559,65 +5525,67 @@
       <c r="A75" s="10">
         <v>44843</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="19">
         <v>11000</v>
       </c>
-      <c r="C75" s="15">
-        <v>0</v>
-      </c>
-      <c r="D75" s="15">
-        <v>0</v>
-      </c>
-      <c r="E75" s="15">
-        <v>0</v>
-      </c>
-      <c r="F75" s="15">
-        <v>0</v>
-      </c>
-      <c r="G75" s="15">
+      <c r="C75" s="19">
+        <v>0</v>
+      </c>
+      <c r="D75" s="19">
+        <v>0</v>
+      </c>
+      <c r="E75" s="19">
+        <v>0</v>
+      </c>
+      <c r="F75" s="19">
+        <v>0</v>
+      </c>
+      <c r="G75" s="19">
         <v>-7595</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="19">
         <v>10</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="19">
         <v>97331</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="19">
         <v>-122900</v>
       </c>
-      <c r="K75" s="16"/>
-      <c r="L75" s="15">
+      <c r="K75" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="19">
         <v>82952</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="19">
         <v>10</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N75" s="19">
         <v>14</v>
       </c>
-      <c r="O75" s="15">
+      <c r="O75" s="19">
         <v>27</v>
       </c>
-      <c r="P75" s="15">
-        <v>22</v>
-      </c>
-      <c r="Q75" s="15">
+      <c r="P75" s="19">
+        <v>22</v>
+      </c>
+      <c r="Q75" s="19">
         <v>57400</v>
       </c>
-      <c r="R75" s="15">
+      <c r="R75" s="19">
         <v>-8292</v>
       </c>
-      <c r="S75" s="15">
+      <c r="S75" s="19">
         <v>49</v>
       </c>
-      <c r="T75" s="15">
+      <c r="T75" s="19">
         <v>129</v>
       </c>
-      <c r="U75" s="15">
-        <v>0</v>
-      </c>
-      <c r="V75" s="15">
+      <c r="U75" s="19">
+        <v>0</v>
+      </c>
+      <c r="V75" s="19">
         <v>9</v>
       </c>
     </row>
@@ -5625,65 +5593,67 @@
       <c r="A76" s="10">
         <v>44844</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="19">
         <v>13200</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="19">
         <v>277</v>
       </c>
-      <c r="D76" s="17">
-        <v>0</v>
-      </c>
-      <c r="E76" s="17">
-        <v>0</v>
-      </c>
-      <c r="F76" s="17">
-        <v>0</v>
-      </c>
-      <c r="G76" s="17">
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="19">
+        <v>0</v>
+      </c>
+      <c r="F76" s="19">
+        <v>0</v>
+      </c>
+      <c r="G76" s="19">
         <v>-13424</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="19">
         <v>6</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="19">
         <v>141847</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="19">
         <v>-91100</v>
       </c>
-      <c r="K76" s="21"/>
-      <c r="L76" s="17">
+      <c r="K76" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="19">
         <v>144788</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="19">
         <v>9</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N76" s="19">
         <v>13</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O76" s="19">
         <v>24</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P76" s="19">
         <v>19</v>
       </c>
-      <c r="Q76" s="17">
+      <c r="Q76" s="19">
         <v>52800</v>
       </c>
-      <c r="R76" s="17">
+      <c r="R76" s="19">
         <v>-8491</v>
       </c>
-      <c r="S76" s="17">
+      <c r="S76" s="19">
         <v>43</v>
       </c>
-      <c r="T76" s="17">
+      <c r="T76" s="19">
         <v>118</v>
       </c>
-      <c r="U76" s="17">
-        <v>0</v>
-      </c>
-      <c r="V76" s="17">
+      <c r="U76" s="19">
+        <v>0</v>
+      </c>
+      <c r="V76" s="19">
         <v>9</v>
       </c>
     </row>
@@ -5691,65 +5661,67 @@
       <c r="A77" s="10">
         <v>44845</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="19">
         <v>2200</v>
       </c>
-      <c r="C77" s="15">
-        <v>0</v>
-      </c>
-      <c r="D77" s="15">
-        <v>0</v>
-      </c>
-      <c r="E77" s="15">
-        <v>0</v>
-      </c>
-      <c r="F77" s="15">
-        <v>0</v>
-      </c>
-      <c r="G77" s="15">
+      <c r="C77" s="19">
+        <v>0</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+      <c r="E77" s="19">
+        <v>0</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="19">
         <v>-2200</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="19">
         <v>5</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="19">
         <v>13899</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="19">
         <v>-40300</v>
       </c>
-      <c r="K77" s="22"/>
-      <c r="L77" s="15">
+      <c r="K77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="19">
         <v>10684</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="19">
         <v>3</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="19">
         <v>6</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="19">
         <v>7</v>
       </c>
-      <c r="P77" s="15">
+      <c r="P77" s="19">
         <v>8</v>
       </c>
-      <c r="Q77" s="15">
+      <c r="Q77" s="19">
         <v>19800</v>
       </c>
-      <c r="R77" s="15">
+      <c r="R77" s="19">
         <v>-8693</v>
       </c>
-      <c r="S77" s="15">
+      <c r="S77" s="19">
         <v>15</v>
       </c>
-      <c r="T77" s="15">
+      <c r="T77" s="19">
         <v>111</v>
       </c>
-      <c r="U77" s="15">
-        <v>0</v>
-      </c>
-      <c r="V77" s="15">
+      <c r="U77" s="19">
+        <v>0</v>
+      </c>
+      <c r="V77" s="19">
         <v>9</v>
       </c>
     </row>
@@ -5757,65 +5729,67 @@
       <c r="A78" s="10">
         <v>44846</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="19">
         <v>5566</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="19">
         <v>199</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="19">
         <v>66</v>
       </c>
-      <c r="E78" s="18">
-        <v>0</v>
-      </c>
-      <c r="F78" s="18">
-        <v>0</v>
-      </c>
-      <c r="G78" s="18">
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+      <c r="F78" s="19">
+        <v>0</v>
+      </c>
+      <c r="G78" s="19">
         <v>-2904</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="19">
         <v>6</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I78" s="19">
         <v>15960</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J78" s="19">
         <v>-8600</v>
       </c>
-      <c r="K78" s="23"/>
-      <c r="L78" s="18">
+      <c r="K78" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="19">
         <v>17047</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M78" s="19">
         <v>10</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N78" s="19">
         <v>11</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O78" s="19">
         <v>27</v>
       </c>
-      <c r="P78" s="18">
-        <v>22</v>
-      </c>
-      <c r="Q78" s="18">
+      <c r="P78" s="19">
+        <v>22</v>
+      </c>
+      <c r="Q78" s="19">
         <v>59400</v>
       </c>
-      <c r="R78" s="18">
+      <c r="R78" s="19">
         <v>-8738</v>
       </c>
-      <c r="S78" s="18">
+      <c r="S78" s="19">
         <v>49</v>
       </c>
-      <c r="T78" s="18">
+      <c r="T78" s="19">
         <v>88</v>
       </c>
-      <c r="U78" s="18">
-        <v>0</v>
-      </c>
-      <c r="V78" s="18">
+      <c r="U78" s="19">
+        <v>0</v>
+      </c>
+      <c r="V78" s="19">
         <v>9</v>
       </c>
     </row>
@@ -5823,65 +5797,67 @@
       <c r="A79" s="10">
         <v>44847</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="19">
         <v>4400</v>
       </c>
-      <c r="C79" s="17">
-        <v>0</v>
-      </c>
-      <c r="D79" s="17">
-        <v>0</v>
-      </c>
-      <c r="E79" s="17">
-        <v>0</v>
-      </c>
-      <c r="F79" s="17">
-        <v>0</v>
-      </c>
-      <c r="G79" s="17">
+      <c r="C79" s="19">
+        <v>0</v>
+      </c>
+      <c r="D79" s="19">
+        <v>0</v>
+      </c>
+      <c r="E79" s="19">
+        <v>0</v>
+      </c>
+      <c r="F79" s="19">
+        <v>0</v>
+      </c>
+      <c r="G79" s="19">
         <v>-3300</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="19">
         <v>8</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="19">
         <v>8470</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="19">
         <v>-9800</v>
       </c>
-      <c r="K79" s="21"/>
-      <c r="L79" s="17">
+      <c r="K79" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="19">
         <v>10686</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="19">
         <v>4</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N79" s="19">
         <v>8</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O79" s="19">
         <v>9</v>
       </c>
-      <c r="P79" s="17">
+      <c r="P79" s="19">
         <v>10</v>
       </c>
-      <c r="Q79" s="17">
+      <c r="Q79" s="19">
         <v>19800</v>
       </c>
-      <c r="R79" s="17">
+      <c r="R79" s="19">
         <v>-8831</v>
       </c>
-      <c r="S79" s="17">
+      <c r="S79" s="19">
         <v>19</v>
       </c>
-      <c r="T79" s="17">
+      <c r="T79" s="19">
         <v>83</v>
       </c>
-      <c r="U79" s="17">
-        <v>0</v>
-      </c>
-      <c r="V79" s="17">
+      <c r="U79" s="19">
+        <v>0</v>
+      </c>
+      <c r="V79" s="19">
         <v>9</v>
       </c>
     </row>
@@ -5889,65 +5865,67 @@
       <c r="A80" s="10">
         <v>44848</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="19">
         <v>12100</v>
       </c>
-      <c r="C80" s="15">
-        <v>0</v>
-      </c>
-      <c r="D80" s="15">
-        <v>0</v>
-      </c>
-      <c r="E80" s="15">
-        <v>0</v>
-      </c>
-      <c r="F80" s="15">
-        <v>0</v>
-      </c>
-      <c r="G80" s="15">
+      <c r="C80" s="19">
+        <v>0</v>
+      </c>
+      <c r="D80" s="19">
+        <v>0</v>
+      </c>
+      <c r="E80" s="19">
+        <v>0</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0</v>
+      </c>
+      <c r="G80" s="19">
         <v>-10809</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="19">
         <v>2</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="19">
         <v>16731</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="19">
         <v>-3900</v>
       </c>
-      <c r="K80" s="22"/>
-      <c r="L80" s="15">
+      <c r="K80" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="19">
         <v>12849</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="19">
         <v>6</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="19">
         <v>11</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="19">
         <v>15</v>
       </c>
-      <c r="P80" s="15">
+      <c r="P80" s="19">
         <v>12</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="19">
         <v>33000</v>
       </c>
-      <c r="R80" s="15">
+      <c r="R80" s="19">
         <v>-8828</v>
       </c>
-      <c r="S80" s="15">
+      <c r="S80" s="19">
         <v>27</v>
       </c>
-      <c r="T80" s="15">
+      <c r="T80" s="19">
         <v>81</v>
       </c>
-      <c r="U80" s="15">
-        <v>0</v>
-      </c>
-      <c r="V80" s="15">
+      <c r="U80" s="19">
+        <v>0</v>
+      </c>
+      <c r="V80" s="19">
         <v>9</v>
       </c>
     </row>
@@ -5955,65 +5933,67 @@
       <c r="A81" s="10">
         <v>44849</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="19">
         <v>33000</v>
       </c>
-      <c r="C81" s="17">
-        <v>0</v>
-      </c>
-      <c r="D81" s="17">
-        <v>0</v>
-      </c>
-      <c r="E81" s="17">
-        <v>0</v>
-      </c>
-      <c r="F81" s="17">
-        <v>0</v>
-      </c>
-      <c r="G81" s="17">
+      <c r="C81" s="19">
+        <v>0</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+      <c r="E81" s="19">
+        <v>0</v>
+      </c>
+      <c r="F81" s="19">
+        <v>0</v>
+      </c>
+      <c r="G81" s="19">
         <v>-3480</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="19">
         <v>8</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="19">
         <v>17626</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J81" s="19">
         <v>-1700</v>
       </c>
-      <c r="K81" s="24"/>
-      <c r="L81" s="17">
+      <c r="K81" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="19">
         <v>18557</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M81" s="19">
         <v>12</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N81" s="19">
         <v>12</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O81" s="19">
         <v>33</v>
       </c>
-      <c r="P81" s="17">
+      <c r="P81" s="19">
         <v>25</v>
       </c>
-      <c r="Q81" s="17">
+      <c r="Q81" s="19">
         <v>72600</v>
       </c>
-      <c r="R81" s="17">
+      <c r="R81" s="19">
         <v>-8886</v>
       </c>
-      <c r="S81" s="17">
+      <c r="S81" s="19">
         <v>58</v>
       </c>
-      <c r="T81" s="17">
+      <c r="T81" s="19">
         <v>79</v>
       </c>
-      <c r="U81" s="17">
-        <v>0</v>
-      </c>
-      <c r="V81" s="17">
+      <c r="U81" s="19">
+        <v>0</v>
+      </c>
+      <c r="V81" s="19">
         <v>9</v>
       </c>
     </row>
@@ -6021,65 +6001,67 @@
       <c r="A82" s="10">
         <v>44850</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="19">
         <v>18746</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="19">
         <v>1040</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="19">
         <v>46</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="19">
         <v>179.01</v>
       </c>
-      <c r="F82" s="15">
-        <v>0</v>
-      </c>
-      <c r="G82" s="15">
+      <c r="F82" s="19">
+        <v>0</v>
+      </c>
+      <c r="G82" s="19">
         <v>-12219</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="19">
         <v>7</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I82" s="19">
         <v>19366</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J82" s="19">
         <v>-19600</v>
       </c>
-      <c r="K82" s="22"/>
-      <c r="L82" s="15">
+      <c r="K82" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="19">
         <v>18919</v>
       </c>
-      <c r="M82" s="15">
+      <c r="M82" s="19">
         <v>12</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N82" s="19">
         <v>17</v>
       </c>
-      <c r="O82" s="15">
+      <c r="O82" s="19">
         <v>33</v>
       </c>
-      <c r="P82" s="15">
+      <c r="P82" s="19">
         <v>29</v>
       </c>
-      <c r="Q82" s="15">
+      <c r="Q82" s="19">
         <v>72600</v>
       </c>
-      <c r="R82" s="15">
+      <c r="R82" s="19">
         <v>-8915</v>
       </c>
-      <c r="S82" s="15">
+      <c r="S82" s="19">
         <v>62</v>
       </c>
-      <c r="T82" s="15">
+      <c r="T82" s="19">
         <v>60</v>
       </c>
-      <c r="U82" s="15">
-        <v>0</v>
-      </c>
-      <c r="V82" s="15">
+      <c r="U82" s="19">
+        <v>0</v>
+      </c>
+      <c r="V82" s="19">
         <v>9</v>
       </c>
     </row>
@@ -6087,65 +6069,67 @@
       <c r="A83" s="10">
         <v>44851</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="19">
         <v>4502</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="19">
         <v>299</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="19">
         <v>102</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="19">
         <v>39</v>
       </c>
-      <c r="F83" s="15">
-        <v>0</v>
-      </c>
-      <c r="G83" s="15">
+      <c r="F83" s="19">
+        <v>0</v>
+      </c>
+      <c r="G83" s="19">
         <v>-3638</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="19">
         <v>8</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="19">
         <v>12407</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="19">
         <v>-29400</v>
       </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="15">
+      <c r="K83" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="19">
         <v>12131</v>
       </c>
-      <c r="M83" s="15">
+      <c r="M83" s="19">
         <v>5</v>
       </c>
-      <c r="N83" s="15">
+      <c r="N83" s="19">
         <v>9</v>
       </c>
-      <c r="O83" s="15">
+      <c r="O83" s="19">
         <v>12</v>
       </c>
-      <c r="P83" s="15">
+      <c r="P83" s="19">
         <v>11</v>
       </c>
-      <c r="Q83" s="15">
+      <c r="Q83" s="19">
         <v>26400</v>
       </c>
-      <c r="R83" s="15">
+      <c r="R83" s="19">
         <v>-8956</v>
       </c>
-      <c r="S83" s="15">
+      <c r="S83" s="19">
         <v>23</v>
       </c>
-      <c r="T83" s="15">
+      <c r="T83" s="19">
         <v>53</v>
       </c>
-      <c r="U83" s="15">
+      <c r="U83" s="19">
         <v>654</v>
       </c>
-      <c r="V83" s="15">
+      <c r="V83" s="19">
         <v>9</v>
       </c>
     </row>
@@ -6153,65 +6137,67 @@
       <c r="A84" s="10">
         <v>44852</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="19">
         <v>3300</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="19">
         <v>119</v>
       </c>
-      <c r="D84" s="15">
-        <v>0</v>
-      </c>
-      <c r="E84" s="15">
+      <c r="D84" s="19">
+        <v>0</v>
+      </c>
+      <c r="E84" s="19">
         <v>108</v>
       </c>
-      <c r="F84" s="15">
-        <v>0</v>
-      </c>
-      <c r="G84" s="15">
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="19">
         <v>-2427</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="19">
         <v>4</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I84" s="19">
         <v>10085</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="19">
         <v>-6800</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="15">
+      <c r="K84" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="19">
         <v>13051</v>
       </c>
-      <c r="M84" s="15">
+      <c r="M84" s="19">
         <v>5</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N84" s="19">
         <v>11</v>
       </c>
-      <c r="O84" s="15">
+      <c r="O84" s="19">
         <v>13</v>
       </c>
-      <c r="P84" s="15">
+      <c r="P84" s="19">
         <v>13</v>
       </c>
-      <c r="Q84" s="15">
+      <c r="Q84" s="19">
         <v>33000</v>
       </c>
-      <c r="R84" s="15">
+      <c r="R84" s="19">
         <v>-5810</v>
       </c>
-      <c r="S84" s="15">
+      <c r="S84" s="19">
         <v>26</v>
       </c>
-      <c r="T84" s="15">
+      <c r="T84" s="19">
         <v>40</v>
       </c>
-      <c r="U84" s="15">
-        <v>0</v>
-      </c>
-      <c r="V84" s="15">
+      <c r="U84" s="19">
+        <v>0</v>
+      </c>
+      <c r="V84" s="19">
         <v>6</v>
       </c>
     </row>
@@ -6219,65 +6205,67 @@
       <c r="A85" s="10">
         <v>44853</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="19">
         <v>13262</v>
       </c>
-      <c r="C85" s="15">
-        <v>0</v>
-      </c>
-      <c r="D85" s="15">
-        <v>0</v>
-      </c>
-      <c r="E85" s="15">
-        <v>0</v>
-      </c>
-      <c r="F85" s="15">
+      <c r="C85" s="19">
+        <v>0</v>
+      </c>
+      <c r="D85" s="19">
+        <v>0</v>
+      </c>
+      <c r="E85" s="19">
+        <v>0</v>
+      </c>
+      <c r="F85" s="19">
         <v>62</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="19">
         <v>-6287</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="19">
         <v>12</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="19">
         <v>35103</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J85" s="19">
         <v>-35900</v>
       </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="15">
+      <c r="K85" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="19">
         <v>32690</v>
       </c>
-      <c r="M85" s="15">
+      <c r="M85" s="19">
         <v>6</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N85" s="19">
         <v>12</v>
       </c>
-      <c r="O85" s="15">
+      <c r="O85" s="19">
         <v>15</v>
       </c>
-      <c r="P85" s="15">
+      <c r="P85" s="19">
         <v>12</v>
       </c>
-      <c r="Q85" s="15">
+      <c r="Q85" s="19">
         <v>33000</v>
       </c>
-      <c r="R85" s="15">
+      <c r="R85" s="19">
         <v>-5857</v>
       </c>
-      <c r="S85" s="15">
+      <c r="S85" s="19">
         <v>27</v>
       </c>
-      <c r="T85" s="15">
+      <c r="T85" s="19">
         <v>39</v>
       </c>
-      <c r="U85" s="15">
-        <v>0</v>
-      </c>
-      <c r="V85" s="15">
+      <c r="U85" s="19">
+        <v>0</v>
+      </c>
+      <c r="V85" s="19">
         <v>6</v>
       </c>
     </row>
@@ -6285,65 +6273,65 @@
       <c r="A86" s="10">
         <v>44854</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="19">
         <v>36300</v>
       </c>
-      <c r="C86" s="15">
-        <v>0</v>
-      </c>
-      <c r="D86" s="15">
-        <v>0</v>
-      </c>
-      <c r="E86" s="15">
-        <v>0</v>
-      </c>
-      <c r="F86" s="15">
-        <v>0</v>
-      </c>
-      <c r="G86" s="15">
+      <c r="C86" s="19">
+        <v>0</v>
+      </c>
+      <c r="D86" s="19">
+        <v>0</v>
+      </c>
+      <c r="E86" s="19">
+        <v>0</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0</v>
+      </c>
+      <c r="G86" s="19">
         <v>-3956</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="19">
         <v>9</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I86" s="19">
         <v>12626</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J86" s="19">
         <v>-2400</v>
       </c>
-      <c r="K86" s="22"/>
-      <c r="L86" s="15">
+      <c r="K86" s="21"/>
+      <c r="L86" s="19">
         <v>15091</v>
       </c>
-      <c r="M86" s="15">
+      <c r="M86" s="19">
         <v>11</v>
       </c>
-      <c r="N86" s="15">
+      <c r="N86" s="19">
         <v>18</v>
       </c>
-      <c r="O86" s="15">
+      <c r="O86" s="19">
         <v>30</v>
       </c>
-      <c r="P86" s="15">
+      <c r="P86" s="19">
         <v>24</v>
       </c>
-      <c r="Q86" s="15">
+      <c r="Q86" s="19">
         <v>66000</v>
       </c>
-      <c r="R86" s="15">
+      <c r="R86" s="19">
         <v>-5873</v>
       </c>
-      <c r="S86" s="15">
+      <c r="S86" s="19">
         <v>54</v>
       </c>
-      <c r="T86" s="15">
+      <c r="T86" s="19">
         <v>42</v>
       </c>
-      <c r="U86" s="15">
-        <v>0</v>
-      </c>
-      <c r="V86" s="15">
+      <c r="U86" s="19">
+        <v>0</v>
+      </c>
+      <c r="V86" s="19">
         <v>6</v>
       </c>
     </row>
@@ -6351,152 +6339,680 @@
       <c r="A87" s="10">
         <v>44855</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="19">
         <v>26400</v>
       </c>
-      <c r="C87" s="15">
-        <v>0</v>
-      </c>
-      <c r="D87" s="15">
-        <v>0</v>
-      </c>
-      <c r="E87" s="15">
-        <v>0</v>
-      </c>
-      <c r="F87" s="15">
-        <v>0</v>
-      </c>
-      <c r="G87" s="18">
+      <c r="C87" s="19">
+        <v>0</v>
+      </c>
+      <c r="D87" s="19">
+        <v>0</v>
+      </c>
+      <c r="E87" s="19">
+        <v>0</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
+      </c>
+      <c r="G87" s="19">
         <v>-1100</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="19">
         <v>3</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="19">
         <v>24352</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="19">
         <v>-9900</v>
       </c>
-      <c r="K87" s="23"/>
-      <c r="L87" s="18">
+      <c r="K87" s="21"/>
+      <c r="L87" s="19">
         <v>25465</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M87" s="19">
         <v>8</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N87" s="19">
         <v>13</v>
       </c>
-      <c r="O87" s="18">
+      <c r="O87" s="19">
         <v>21</v>
       </c>
-      <c r="P87" s="18">
+      <c r="P87" s="19">
         <v>20</v>
       </c>
-      <c r="Q87" s="18">
+      <c r="Q87" s="19">
         <v>46200</v>
       </c>
-      <c r="R87" s="18">
+      <c r="R87" s="19">
         <v>-5923</v>
       </c>
-      <c r="S87" s="18">
+      <c r="S87" s="19">
         <v>41</v>
       </c>
-      <c r="T87" s="18">
+      <c r="T87" s="19">
         <v>43</v>
       </c>
-      <c r="U87" s="18">
-        <v>0</v>
-      </c>
-      <c r="V87" s="18">
+      <c r="U87" s="19">
+        <v>0</v>
+      </c>
+      <c r="V87" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10">
+        <v>44856</v>
+      </c>
+      <c r="B88" s="15">
+        <v>11000</v>
+      </c>
+      <c r="C88" s="15">
+        <v>0</v>
+      </c>
+      <c r="D88" s="15">
+        <v>0</v>
+      </c>
+      <c r="E88" s="15">
+        <v>0</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>-7421</v>
+      </c>
+      <c r="H88" s="15">
+        <v>6</v>
+      </c>
+      <c r="I88" s="15">
+        <v>8639</v>
+      </c>
+      <c r="J88" s="15">
+        <v>-4900</v>
+      </c>
+      <c r="K88" s="22"/>
+      <c r="L88" s="15">
+        <v>11145</v>
+      </c>
+      <c r="M88" s="15">
+        <v>7</v>
+      </c>
+      <c r="N88" s="15">
+        <v>11</v>
+      </c>
+      <c r="O88" s="15">
+        <v>18</v>
+      </c>
+      <c r="P88" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="15">
+        <v>39600</v>
+      </c>
+      <c r="R88" s="15">
+        <v>-5934</v>
+      </c>
+      <c r="S88" s="15">
+        <v>34</v>
+      </c>
+      <c r="T88" s="15">
+        <v>35</v>
+      </c>
+      <c r="U88" s="15">
+        <v>0</v>
+      </c>
+      <c r="V88" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>44857</v>
+      </c>
+      <c r="B89" s="15">
+        <v>25300</v>
+      </c>
+      <c r="C89" s="15">
+        <v>0</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0</v>
+      </c>
+      <c r="E89" s="15">
+        <v>0</v>
+      </c>
+      <c r="F89" s="15">
+        <v>0</v>
+      </c>
+      <c r="G89" s="15">
+        <v>-5500</v>
+      </c>
+      <c r="H89" s="15">
+        <v>4</v>
+      </c>
+      <c r="I89" s="15">
+        <v>28946</v>
+      </c>
+      <c r="J89" s="15">
+        <v>-40700</v>
+      </c>
+      <c r="K89" s="23"/>
+      <c r="L89" s="15">
+        <v>24571</v>
+      </c>
+      <c r="M89" s="15">
+        <v>7</v>
+      </c>
+      <c r="N89" s="15">
+        <v>12</v>
+      </c>
+      <c r="O89" s="15">
+        <v>18</v>
+      </c>
+      <c r="P89" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q89" s="15">
+        <v>39600</v>
+      </c>
+      <c r="R89" s="15">
+        <v>-5982</v>
+      </c>
+      <c r="S89" s="15">
+        <v>33</v>
+      </c>
+      <c r="T89" s="15">
+        <v>41</v>
+      </c>
+      <c r="U89" s="15">
+        <v>0</v>
+      </c>
+      <c r="V89" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>44858</v>
+      </c>
+      <c r="B90" s="15">
+        <v>14300</v>
+      </c>
+      <c r="C90" s="15">
+        <v>0</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0</v>
+      </c>
+      <c r="E90" s="15">
+        <v>0</v>
+      </c>
+      <c r="F90" s="15">
+        <v>0</v>
+      </c>
+      <c r="G90" s="15">
+        <v>-13182</v>
+      </c>
+      <c r="H90" s="15">
+        <v>7</v>
+      </c>
+      <c r="I90" s="15">
+        <v>23908</v>
+      </c>
+      <c r="J90" s="15">
+        <v>-10700</v>
+      </c>
+      <c r="K90" s="23"/>
+      <c r="L90" s="15">
+        <v>22345</v>
+      </c>
+      <c r="M90" s="15">
+        <v>8</v>
+      </c>
+      <c r="N90" s="15">
+        <v>14</v>
+      </c>
+      <c r="O90" s="15">
+        <v>22</v>
+      </c>
+      <c r="P90" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q90" s="15">
+        <v>52800</v>
+      </c>
+      <c r="R90" s="15">
+        <v>-6005</v>
+      </c>
+      <c r="S90" s="15">
+        <v>39</v>
+      </c>
+      <c r="T90" s="15">
+        <v>31</v>
+      </c>
+      <c r="U90" s="15">
+        <v>0</v>
+      </c>
+      <c r="V90" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>44859</v>
+      </c>
+      <c r="B91" s="15">
+        <v>29700</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1786</v>
+      </c>
+      <c r="D91" s="15">
+        <v>0</v>
+      </c>
+      <c r="E91" s="15">
+        <v>0</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0</v>
+      </c>
+      <c r="G91" s="15">
+        <v>-5862</v>
+      </c>
+      <c r="H91" s="15">
+        <v>7</v>
+      </c>
+      <c r="I91" s="15">
+        <v>11897</v>
+      </c>
+      <c r="J91" s="15">
+        <v>-3700</v>
+      </c>
+      <c r="K91" s="22"/>
+      <c r="L91" s="15">
+        <v>9257</v>
+      </c>
+      <c r="M91" s="15">
+        <v>5</v>
+      </c>
+      <c r="N91" s="15">
+        <v>13</v>
+      </c>
+      <c r="O91" s="15">
+        <v>12</v>
+      </c>
+      <c r="P91" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q91" s="15">
+        <v>26400</v>
+      </c>
+      <c r="R91" s="15">
+        <v>-6049</v>
+      </c>
+      <c r="S91" s="15">
+        <v>25</v>
+      </c>
+      <c r="T91" s="15">
+        <v>44</v>
+      </c>
+      <c r="U91" s="15">
+        <v>0</v>
+      </c>
+      <c r="V91" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>44860</v>
+      </c>
+      <c r="B92" s="15">
+        <v>6600</v>
+      </c>
+      <c r="C92" s="15">
+        <v>0</v>
+      </c>
+      <c r="D92" s="15">
+        <v>0</v>
+      </c>
+      <c r="E92" s="15">
+        <v>0</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0</v>
+      </c>
+      <c r="G92" s="15">
+        <v>0</v>
+      </c>
+      <c r="H92" s="15">
+        <v>8</v>
+      </c>
+      <c r="I92" s="15">
+        <v>8053</v>
+      </c>
+      <c r="J92" s="15">
+        <v>-4800</v>
+      </c>
+      <c r="K92" s="22"/>
+      <c r="L92" s="15">
+        <v>10573</v>
+      </c>
+      <c r="M92" s="15">
+        <v>6</v>
+      </c>
+      <c r="N92" s="15">
+        <v>14</v>
+      </c>
+      <c r="O92" s="15">
+        <v>15</v>
+      </c>
+      <c r="P92" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q92" s="15">
+        <v>33000</v>
+      </c>
+      <c r="R92" s="15">
+        <v>-6050</v>
+      </c>
+      <c r="S92" s="15">
+        <v>27</v>
+      </c>
+      <c r="T92" s="15">
+        <v>37</v>
+      </c>
+      <c r="U92" s="15">
+        <v>0</v>
+      </c>
+      <c r="V92" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>44861</v>
+      </c>
+      <c r="B93" s="15">
+        <v>7700</v>
+      </c>
+      <c r="C93" s="15">
+        <v>0</v>
+      </c>
+      <c r="D93" s="15">
+        <v>0</v>
+      </c>
+      <c r="E93" s="15">
+        <v>0</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0</v>
+      </c>
+      <c r="G93" s="15">
+        <v>-2200</v>
+      </c>
+      <c r="H93" s="15">
+        <v>3</v>
+      </c>
+      <c r="I93" s="15">
+        <v>10137</v>
+      </c>
+      <c r="J93" s="15">
+        <v>-900</v>
+      </c>
+      <c r="K93" s="22"/>
+      <c r="L93" s="15">
+        <v>9424</v>
+      </c>
+      <c r="M93" s="15">
+        <v>5</v>
+      </c>
+      <c r="N93" s="15">
+        <v>12</v>
+      </c>
+      <c r="O93" s="15">
+        <v>12</v>
+      </c>
+      <c r="P93" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q93" s="15">
+        <v>26400</v>
+      </c>
+      <c r="R93" s="15">
+        <v>-6114</v>
+      </c>
+      <c r="S93" s="15">
+        <v>25</v>
+      </c>
+      <c r="T93" s="15">
+        <v>30</v>
+      </c>
+      <c r="U93" s="15">
+        <v>0</v>
+      </c>
+      <c r="V93" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>44862</v>
+      </c>
+      <c r="B94" s="15">
+        <v>11000</v>
+      </c>
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0</v>
+      </c>
+      <c r="E94" s="15">
+        <v>0</v>
+      </c>
+      <c r="F94" s="15">
+        <v>0</v>
+      </c>
+      <c r="G94" s="15">
+        <v>-2200</v>
+      </c>
+      <c r="H94" s="15">
+        <v>12</v>
+      </c>
+      <c r="I94" s="15">
+        <v>7570</v>
+      </c>
+      <c r="J94" s="15">
+        <v>-3200</v>
+      </c>
+      <c r="K94" s="22"/>
+      <c r="L94" s="15">
+        <v>7516</v>
+      </c>
+      <c r="M94" s="15">
+        <v>3</v>
+      </c>
+      <c r="N94" s="15">
+        <v>12</v>
+      </c>
+      <c r="O94" s="15">
+        <v>6</v>
+      </c>
+      <c r="P94" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="15">
+        <v>13200</v>
+      </c>
+      <c r="R94" s="15">
+        <v>-6121</v>
+      </c>
+      <c r="S94" s="15">
+        <v>14</v>
+      </c>
+      <c r="T94" s="15">
+        <v>34</v>
+      </c>
+      <c r="U94" s="15">
+        <v>0</v>
+      </c>
+      <c r="V94" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>44863</v>
+      </c>
+      <c r="B95" s="16">
+        <v>12100</v>
+      </c>
+      <c r="C95" s="16">
+        <v>504</v>
+      </c>
+      <c r="D95" s="16">
+        <v>0</v>
+      </c>
+      <c r="E95" s="16">
+        <v>0</v>
+      </c>
+      <c r="F95" s="16">
+        <v>0</v>
+      </c>
+      <c r="G95" s="16">
+        <v>-3602</v>
+      </c>
+      <c r="H95" s="16">
+        <v>7</v>
+      </c>
+      <c r="I95" s="16">
+        <v>6177</v>
+      </c>
+      <c r="J95" s="16">
+        <v>-5100</v>
+      </c>
+      <c r="K95" s="24"/>
+      <c r="L95" s="16">
+        <v>8333</v>
+      </c>
+      <c r="M95" s="16">
+        <v>4</v>
+      </c>
+      <c r="N95" s="16">
+        <v>12</v>
+      </c>
+      <c r="O95" s="16">
+        <v>12</v>
+      </c>
+      <c r="P95" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q95" s="16">
+        <v>19800</v>
+      </c>
+      <c r="R95" s="16">
+        <v>-6131</v>
+      </c>
+      <c r="S95" s="16">
+        <v>19</v>
+      </c>
+      <c r="T95" s="16">
+        <v>36</v>
+      </c>
+      <c r="U95" s="16">
+        <v>0</v>
+      </c>
+      <c r="V95" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="24.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="12">
-        <f>SUM(B2:B87)</f>
-        <v>3830331</v>
-      </c>
-      <c r="C88" s="12">
-        <f t="shared" ref="C88:V88" si="0">SUM(C2:C87)</f>
-        <v>3292</v>
-      </c>
-      <c r="D88" s="12">
+      <c r="B96" s="12">
+        <f>SUM(B2:B95)</f>
+        <v>3948031</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" ref="C96:V96" si="0">SUM(C2:C95)</f>
+        <v>5582</v>
+      </c>
+      <c r="D96" s="12">
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E96" s="12">
         <f t="shared" si="0"/>
         <v>2443.0100000000002</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F96" s="12">
         <f t="shared" si="0"/>
         <v>928</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G96" s="12">
         <f t="shared" si="0"/>
-        <v>-881076</v>
-      </c>
-      <c r="H88" s="12">
+        <v>-921043</v>
+      </c>
+      <c r="H96" s="12">
         <f t="shared" si="0"/>
-        <v>1716</v>
-      </c>
-      <c r="I88" s="12">
+        <v>1770</v>
+      </c>
+      <c r="I96" s="12">
         <f t="shared" si="0"/>
-        <v>2768501</v>
-      </c>
-      <c r="J88" s="12">
+        <v>2873828</v>
+      </c>
+      <c r="J96" s="12">
         <f t="shared" si="0"/>
-        <v>-1605731</v>
-      </c>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12">
+        <v>-1679731</v>
+      </c>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12">
         <f t="shared" si="0"/>
-        <v>2792653</v>
-      </c>
-      <c r="M88" s="12">
+        <v>2895817</v>
+      </c>
+      <c r="M96" s="12">
         <f t="shared" si="0"/>
-        <v>1263</v>
-      </c>
-      <c r="N88" s="12">
+        <v>1308</v>
+      </c>
+      <c r="N96" s="12">
         <f t="shared" si="0"/>
-        <v>1764</v>
-      </c>
-      <c r="O88" s="12">
+        <v>1864</v>
+      </c>
+      <c r="O96" s="12">
         <f t="shared" si="0"/>
-        <v>3619</v>
-      </c>
-      <c r="P88" s="12">
+        <v>3734</v>
+      </c>
+      <c r="P96" s="12">
         <f t="shared" si="0"/>
-        <v>3198</v>
-      </c>
-      <c r="Q88" s="12">
+        <v>3299</v>
+      </c>
+      <c r="Q96" s="12">
         <f t="shared" si="0"/>
-        <v>8080800</v>
-      </c>
-      <c r="R88" s="12">
+        <v>8331600</v>
+      </c>
+      <c r="R96" s="12">
         <f t="shared" si="0"/>
-        <v>-882950</v>
-      </c>
-      <c r="S88" s="12">
+        <v>-931336</v>
+      </c>
+      <c r="S96" s="12">
         <f t="shared" si="0"/>
-        <v>6817</v>
-      </c>
-      <c r="T88" s="12">
+        <v>7033</v>
+      </c>
+      <c r="T96" s="12">
         <f t="shared" si="0"/>
-        <v>8208</v>
-      </c>
-      <c r="U88" s="12">
+        <v>8496</v>
+      </c>
+      <c r="U96" s="12">
         <f t="shared" si="0"/>
         <v>5751</v>
       </c>
-      <c r="V88" s="12">
+      <c r="V96" s="12">
         <f t="shared" si="0"/>
-        <v>3781</v>
+        <v>3829</v>
       </c>
     </row>
   </sheetData>
